--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c103_I1_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c103_I1_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1724" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3448" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -419,10 +431,10 @@
       <c r="I10">
         <f>((C10-C9)^2+(D10- D9)^2)^.5</f>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="2" t="s">
+      <c r="J10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L10" t="n">
@@ -466,28 +478,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="2">
+      <c r="A12" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B12" t="s" s="2">
+      <c r="B12" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C12" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s" s="2">
+      <c r="C12" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E12" t="s" s="2">
+      <c r="E12" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="F12" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G12" t="s" s="2">
+      <c r="G12" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H12" t="s" s="2">
+      <c r="H12" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -512,28 +524,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="B14" t="s" s="2">
+      <c r="B14" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C14" t="s" s="2">
+      <c r="C14" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D14" t="s" s="2">
+      <c r="D14" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E14" t="s" s="2">
+      <c r="E14" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F14" t="s" s="2">
+      <c r="F14" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G14" t="s" s="2">
+      <c r="G14" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H14" t="s" s="2">
+      <c r="H14" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I14" t="s" s="2">
+      <c r="I14" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -650,10 +662,10 @@
       <c r="I18">
         <f>((C18-C17)^2+(D18- D17)^2)^.5</f>
       </c>
-      <c r="J18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K18" s="2" t="s">
+      <c r="J18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L18" t="n">
@@ -697,28 +709,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="2">
+      <c r="A20" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B20" t="s" s="2">
+      <c r="B20" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C20" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D20" t="s" s="2">
+      <c r="C20" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E20" t="s" s="2">
+      <c r="E20" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F20" t="s" s="2">
+      <c r="F20" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G20" t="s" s="2">
+      <c r="G20" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H20" t="s" s="2">
+      <c r="H20" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -743,28 +755,28 @@
       </c>
     </row>
     <row r="22">
-      <c r="B22" t="s" s="2">
+      <c r="B22" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C22" t="s" s="2">
+      <c r="C22" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D22" t="s" s="2">
+      <c r="D22" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E22" t="s" s="2">
+      <c r="E22" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F22" t="s" s="2">
+      <c r="F22" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G22" t="s" s="2">
+      <c r="G22" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H22" t="s" s="2">
+      <c r="H22" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I22" t="s" s="2">
+      <c r="I22" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -823,10 +835,10 @@
       <c r="I24">
         <f>((C24-C23)^2+(D24- D23)^2)^.5</f>
       </c>
-      <c r="J24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="2" t="s">
+      <c r="J24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L24" t="n">
@@ -870,28 +882,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s" s="2">
+      <c r="A26" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B26" t="s" s="2">
+      <c r="B26" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C26" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D26" t="s" s="2">
+      <c r="C26" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E26" t="s" s="2">
+      <c r="E26" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F26" t="s" s="2">
+      <c r="F26" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G26" t="s" s="2">
+      <c r="G26" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H26" t="s" s="2">
+      <c r="H26" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -916,28 +928,28 @@
       </c>
     </row>
     <row r="28">
-      <c r="B28" t="s" s="2">
+      <c r="B28" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C28" t="s" s="2">
+      <c r="C28" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D28" t="s" s="2">
+      <c r="D28" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E28" t="s" s="2">
+      <c r="E28" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F28" t="s" s="2">
+      <c r="F28" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G28" t="s" s="2">
+      <c r="G28" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H28" t="s" s="2">
+      <c r="H28" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I28" t="s" s="2">
+      <c r="I28" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1025,10 +1037,10 @@
       <c r="I31">
         <f>((C31-C30)^2+(D31- D30)^2)^.5</f>
       </c>
-      <c r="J31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K31" s="2" t="s">
+      <c r="J31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K31" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L31" t="n">
@@ -1072,28 +1084,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s" s="2">
+      <c r="A33" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B33" t="s" s="2">
+      <c r="B33" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C33" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D33" t="s" s="2">
+      <c r="C33" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D33" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E33" t="s" s="2">
+      <c r="E33" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F33" t="s" s="2">
+      <c r="F33" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G33" t="s" s="2">
+      <c r="G33" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H33" t="s" s="2">
+      <c r="H33" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1118,28 +1130,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="B35" t="s" s="2">
+      <c r="B35" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C35" t="s" s="2">
+      <c r="C35" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D35" t="s" s="2">
+      <c r="D35" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E35" t="s" s="2">
+      <c r="E35" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F35" t="s" s="2">
+      <c r="F35" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G35" t="s" s="2">
+      <c r="G35" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H35" t="s" s="2">
+      <c r="H35" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I35" t="s" s="2">
+      <c r="I35" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1227,10 +1239,10 @@
       <c r="I38">
         <f>((C38-C37)^2+(D38- D37)^2)^.5</f>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K38" s="2" t="s">
+      <c r="J38" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K38" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L38" t="n">
@@ -1274,28 +1286,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s" s="2">
+      <c r="A40" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B40" t="s" s="2">
+      <c r="B40" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C40" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D40" t="s" s="2">
+      <c r="C40" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E40" t="s" s="2">
+      <c r="E40" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F40" t="s" s="2">
+      <c r="F40" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G40" t="s" s="2">
+      <c r="G40" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H40" t="s" s="2">
+      <c r="H40" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1320,28 +1332,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="B42" t="s" s="2">
+      <c r="B42" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C42" t="s" s="2">
+      <c r="C42" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D42" t="s" s="2">
+      <c r="D42" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E42" t="s" s="2">
+      <c r="E42" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F42" t="s" s="2">
+      <c r="F42" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G42" t="s" s="2">
+      <c r="G42" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H42" t="s" s="2">
+      <c r="H42" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I42" t="s" s="2">
+      <c r="I42" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1458,10 +1470,10 @@
       <c r="I46">
         <f>((C46-C45)^2+(D46- D45)^2)^.5</f>
       </c>
-      <c r="J46" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K46" s="2" t="s">
+      <c r="J46" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K46" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L46" t="n">
@@ -1505,28 +1517,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s" s="2">
+      <c r="A48" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B48" t="s" s="2">
+      <c r="B48" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C48" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D48" t="s" s="2">
+      <c r="C48" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D48" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E48" t="s" s="2">
+      <c r="E48" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F48" t="s" s="2">
+      <c r="F48" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G48" t="s" s="2">
+      <c r="G48" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H48" t="s" s="2">
+      <c r="H48" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1551,28 +1563,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="B50" t="s" s="2">
+      <c r="B50" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C50" t="s" s="2">
+      <c r="C50" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D50" t="s" s="2">
+      <c r="D50" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E50" t="s" s="2">
+      <c r="E50" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F50" t="s" s="2">
+      <c r="F50" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G50" t="s" s="2">
+      <c r="G50" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H50" t="s" s="2">
+      <c r="H50" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I50" t="s" s="2">
+      <c r="I50" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1660,10 +1672,10 @@
       <c r="I53">
         <f>((C53-C52)^2+(D53- D52)^2)^.5</f>
       </c>
-      <c r="J53" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K53" s="2" t="s">
+      <c r="J53" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K53" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L53" t="n">
@@ -1707,28 +1719,28 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="s" s="2">
+      <c r="A55" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B55" t="s" s="2">
+      <c r="B55" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C55" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D55" t="s" s="2">
+      <c r="C55" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D55" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E55" t="s" s="2">
+      <c r="E55" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F55" t="s" s="2">
+      <c r="F55" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G55" t="s" s="2">
+      <c r="G55" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H55" t="s" s="2">
+      <c r="H55" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1753,28 +1765,28 @@
       </c>
     </row>
     <row r="57">
-      <c r="B57" t="s" s="2">
+      <c r="B57" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C57" t="s" s="2">
+      <c r="C57" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D57" t="s" s="2">
+      <c r="D57" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E57" t="s" s="2">
+      <c r="E57" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F57" t="s" s="2">
+      <c r="F57" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G57" t="s" s="2">
+      <c r="G57" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H57" t="s" s="2">
+      <c r="H57" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I57" t="s" s="2">
+      <c r="I57" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1891,10 +1903,10 @@
       <c r="I61">
         <f>((C61-C60)^2+(D61- D60)^2)^.5</f>
       </c>
-      <c r="J61" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K61" s="2" t="s">
+      <c r="J61" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K61" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L61" t="n">
@@ -1938,28 +1950,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="s" s="2">
+      <c r="A63" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B63" t="s" s="2">
+      <c r="B63" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C63" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D63" t="s" s="2">
+      <c r="C63" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D63" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E63" t="s" s="2">
+      <c r="E63" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F63" t="s" s="2">
+      <c r="F63" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G63" t="s" s="2">
+      <c r="G63" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H63" t="s" s="2">
+      <c r="H63" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1984,28 +1996,28 @@
       </c>
     </row>
     <row r="65">
-      <c r="B65" t="s" s="2">
+      <c r="B65" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C65" t="s" s="2">
+      <c r="C65" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D65" t="s" s="2">
+      <c r="D65" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E65" t="s" s="2">
+      <c r="E65" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F65" t="s" s="2">
+      <c r="F65" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G65" t="s" s="2">
+      <c r="G65" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H65" t="s" s="2">
+      <c r="H65" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I65" t="s" s="2">
+      <c r="I65" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2151,10 +2163,10 @@
       <c r="I70">
         <f>((C70-C69)^2+(D70- D69)^2)^.5</f>
       </c>
-      <c r="J70" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K70" s="2" t="s">
+      <c r="J70" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K70" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L70" t="n">
@@ -2198,28 +2210,28 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="s" s="2">
+      <c r="A72" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B72" t="s" s="2">
+      <c r="B72" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C72" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D72" t="s" s="2">
+      <c r="C72" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D72" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E72" t="s" s="2">
+      <c r="E72" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F72" t="s" s="2">
+      <c r="F72" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G72" t="s" s="2">
+      <c r="G72" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H72" t="s" s="2">
+      <c r="H72" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2244,28 +2256,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="B74" t="s" s="2">
+      <c r="B74" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C74" t="s" s="2">
+      <c r="C74" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D74" t="s" s="2">
+      <c r="D74" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E74" t="s" s="2">
+      <c r="E74" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F74" t="s" s="2">
+      <c r="F74" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G74" t="s" s="2">
+      <c r="G74" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H74" t="s" s="2">
+      <c r="H74" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I74" t="s" s="2">
+      <c r="I74" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2411,10 +2423,10 @@
       <c r="I79">
         <f>((C79-C78)^2+(D79- D78)^2)^.5</f>
       </c>
-      <c r="J79" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K79" s="2" t="s">
+      <c r="J79" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K79" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L79" t="n">
@@ -2458,28 +2470,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="s" s="2">
+      <c r="A81" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B81" t="s" s="2">
+      <c r="B81" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C81" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D81" t="s" s="2">
+      <c r="C81" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D81" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E81" t="s" s="2">
+      <c r="E81" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F81" t="s" s="2">
+      <c r="F81" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G81" t="s" s="2">
+      <c r="G81" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H81" t="s" s="2">
+      <c r="H81" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2504,28 +2516,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="B83" t="s" s="2">
+      <c r="B83" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C83" t="s" s="2">
+      <c r="C83" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D83" t="s" s="2">
+      <c r="D83" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E83" t="s" s="2">
+      <c r="E83" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F83" t="s" s="2">
+      <c r="F83" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G83" t="s" s="2">
+      <c r="G83" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H83" t="s" s="2">
+      <c r="H83" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I83" t="s" s="2">
+      <c r="I83" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2671,10 +2683,10 @@
       <c r="I88">
         <f>((C88-C87)^2+(D88- D87)^2)^.5</f>
       </c>
-      <c r="J88" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K88" s="2" t="s">
+      <c r="J88" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K88" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L88" t="n">
@@ -2718,28 +2730,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="s" s="2">
+      <c r="A90" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B90" t="s" s="2">
+      <c r="B90" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C90" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D90" t="s" s="2">
+      <c r="C90" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D90" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E90" t="s" s="2">
+      <c r="E90" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F90" t="s" s="2">
+      <c r="F90" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G90" t="s" s="2">
+      <c r="G90" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H90" t="s" s="2">
+      <c r="H90" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2764,28 +2776,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="B92" t="s" s="2">
+      <c r="B92" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C92" t="s" s="2">
+      <c r="C92" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D92" t="s" s="2">
+      <c r="D92" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E92" t="s" s="2">
+      <c r="E92" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F92" t="s" s="2">
+      <c r="F92" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G92" t="s" s="2">
+      <c r="G92" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H92" t="s" s="2">
+      <c r="H92" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I92" t="s" s="2">
+      <c r="I92" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2873,10 +2885,10 @@
       <c r="I95">
         <f>((C95-C94)^2+(D95- D94)^2)^.5</f>
       </c>
-      <c r="J95" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K95" s="2" t="s">
+      <c r="J95" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K95" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L95" t="n">
@@ -2920,28 +2932,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="s" s="2">
+      <c r="A97" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B97" t="s" s="2">
+      <c r="B97" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C97" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D97" t="s" s="2">
+      <c r="C97" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D97" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E97" t="s" s="2">
+      <c r="E97" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F97" t="s" s="2">
+      <c r="F97" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G97" t="s" s="2">
+      <c r="G97" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H97" t="s" s="2">
+      <c r="H97" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2966,28 +2978,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="B99" t="s" s="2">
+      <c r="B99" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C99" t="s" s="2">
+      <c r="C99" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D99" t="s" s="2">
+      <c r="D99" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E99" t="s" s="2">
+      <c r="E99" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F99" t="s" s="2">
+      <c r="F99" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G99" t="s" s="2">
+      <c r="G99" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H99" t="s" s="2">
+      <c r="H99" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I99" t="s" s="2">
+      <c r="I99" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3191,10 +3203,10 @@
       <c r="I106">
         <f>((C106-C105)^2+(D106- D105)^2)^.5</f>
       </c>
-      <c r="J106" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K106" s="2" t="s">
+      <c r="J106" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K106" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L106" t="n">
@@ -3238,28 +3250,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="s" s="2">
+      <c r="A108" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B108" t="s" s="2">
+      <c r="B108" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C108" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D108" t="s" s="2">
+      <c r="C108" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D108" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E108" t="s" s="2">
+      <c r="E108" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F108" t="s" s="2">
+      <c r="F108" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G108" t="s" s="2">
+      <c r="G108" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H108" t="s" s="2">
+      <c r="H108" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3284,28 +3296,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="B110" t="s" s="2">
+      <c r="B110" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C110" t="s" s="2">
+      <c r="C110" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D110" t="s" s="2">
+      <c r="D110" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E110" t="s" s="2">
+      <c r="E110" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F110" t="s" s="2">
+      <c r="F110" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G110" t="s" s="2">
+      <c r="G110" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H110" t="s" s="2">
+      <c r="H110" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I110" t="s" s="2">
+      <c r="I110" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3422,10 +3434,10 @@
       <c r="I114">
         <f>((C114-C113)^2+(D114- D113)^2)^.5</f>
       </c>
-      <c r="J114" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K114" s="2" t="s">
+      <c r="J114" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K114" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L114" t="n">
@@ -3469,28 +3481,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="s" s="2">
+      <c r="A116" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B116" t="s" s="2">
+      <c r="B116" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C116" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D116" t="s" s="2">
+      <c r="C116" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D116" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E116" t="s" s="2">
+      <c r="E116" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F116" t="s" s="2">
+      <c r="F116" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G116" t="s" s="2">
+      <c r="G116" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H116" t="s" s="2">
+      <c r="H116" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3515,28 +3527,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="B118" t="s" s="2">
+      <c r="B118" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C118" t="s" s="2">
+      <c r="C118" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D118" t="s" s="2">
+      <c r="D118" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E118" t="s" s="2">
+      <c r="E118" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F118" t="s" s="2">
+      <c r="F118" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G118" t="s" s="2">
+      <c r="G118" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H118" t="s" s="2">
+      <c r="H118" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I118" t="s" s="2">
+      <c r="I118" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3653,10 +3665,10 @@
       <c r="I122">
         <f>((C122-C121)^2+(D122- D121)^2)^.5</f>
       </c>
-      <c r="J122" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K122" s="2" t="s">
+      <c r="J122" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K122" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L122" t="n">
@@ -3700,28 +3712,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="s" s="2">
+      <c r="A124" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B124" t="s" s="2">
+      <c r="B124" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C124" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D124" t="s" s="2">
+      <c r="C124" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D124" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E124" t="s" s="2">
+      <c r="E124" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F124" t="s" s="2">
+      <c r="F124" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G124" t="s" s="2">
+      <c r="G124" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H124" t="s" s="2">
+      <c r="H124" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3746,28 +3758,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="B126" t="s" s="2">
+      <c r="B126" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C126" t="s" s="2">
+      <c r="C126" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D126" t="s" s="2">
+      <c r="D126" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E126" t="s" s="2">
+      <c r="E126" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F126" t="s" s="2">
+      <c r="F126" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G126" t="s" s="2">
+      <c r="G126" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H126" t="s" s="2">
+      <c r="H126" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I126" t="s" s="2">
+      <c r="I126" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3855,10 +3867,10 @@
       <c r="I129">
         <f>((C129-C128)^2+(D129- D128)^2)^.5</f>
       </c>
-      <c r="J129" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K129" s="2" t="s">
+      <c r="J129" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K129" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L129" t="n">
@@ -3902,28 +3914,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="s" s="2">
+      <c r="A131" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B131" t="s" s="2">
+      <c r="B131" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C131" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D131" t="s" s="2">
+      <c r="C131" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D131" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E131" t="s" s="2">
+      <c r="E131" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F131" t="s" s="2">
+      <c r="F131" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G131" t="s" s="2">
+      <c r="G131" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H131" t="s" s="2">
+      <c r="H131" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3948,28 +3960,28 @@
       </c>
     </row>
     <row r="133">
-      <c r="B133" t="s" s="2">
+      <c r="B133" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C133" t="s" s="2">
+      <c r="C133" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D133" t="s" s="2">
+      <c r="D133" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E133" t="s" s="2">
+      <c r="E133" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F133" t="s" s="2">
+      <c r="F133" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G133" t="s" s="2">
+      <c r="G133" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H133" t="s" s="2">
+      <c r="H133" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I133" t="s" s="2">
+      <c r="I133" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4086,10 +4098,10 @@
       <c r="I137">
         <f>((C137-C136)^2+(D137- D136)^2)^.5</f>
       </c>
-      <c r="J137" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K137" s="2" t="s">
+      <c r="J137" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K137" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L137" t="n">
@@ -4133,28 +4145,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="s" s="2">
+      <c r="A139" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B139" t="s" s="2">
+      <c r="B139" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C139" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D139" t="s" s="2">
+      <c r="C139" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D139" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E139" t="s" s="2">
+      <c r="E139" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F139" t="s" s="2">
+      <c r="F139" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G139" t="s" s="2">
+      <c r="G139" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H139" t="s" s="2">
+      <c r="H139" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4179,28 +4191,28 @@
       </c>
     </row>
     <row r="141">
-      <c r="B141" t="s" s="2">
+      <c r="B141" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C141" t="s" s="2">
+      <c r="C141" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D141" t="s" s="2">
+      <c r="D141" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E141" t="s" s="2">
+      <c r="E141" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F141" t="s" s="2">
+      <c r="F141" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G141" t="s" s="2">
+      <c r="G141" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H141" t="s" s="2">
+      <c r="H141" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I141" t="s" s="2">
+      <c r="I141" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4288,10 +4300,10 @@
       <c r="I144">
         <f>((C144-C143)^2+(D144- D143)^2)^.5</f>
       </c>
-      <c r="J144" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K144" s="2" t="s">
+      <c r="J144" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K144" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L144" t="n">
@@ -4335,28 +4347,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="s" s="2">
+      <c r="A146" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B146" t="s" s="2">
+      <c r="B146" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C146" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D146" t="s" s="2">
+      <c r="C146" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D146" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E146" t="s" s="2">
+      <c r="E146" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F146" t="s" s="2">
+      <c r="F146" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G146" t="s" s="2">
+      <c r="G146" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H146" t="s" s="2">
+      <c r="H146" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4381,28 +4393,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="B148" t="s" s="2">
+      <c r="B148" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C148" t="s" s="2">
+      <c r="C148" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D148" t="s" s="2">
+      <c r="D148" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E148" t="s" s="2">
+      <c r="E148" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F148" t="s" s="2">
+      <c r="F148" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G148" t="s" s="2">
+      <c r="G148" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H148" t="s" s="2">
+      <c r="H148" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I148" t="s" s="2">
+      <c r="I148" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4519,10 +4531,10 @@
       <c r="I152">
         <f>((C152-C151)^2+(D152- D151)^2)^.5</f>
       </c>
-      <c r="J152" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K152" s="2" t="s">
+      <c r="J152" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K152" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L152" t="n">
@@ -4566,28 +4578,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="s" s="2">
+      <c r="A154" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B154" t="s" s="2">
+      <c r="B154" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C154" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D154" t="s" s="2">
+      <c r="C154" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D154" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E154" t="s" s="2">
+      <c r="E154" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F154" t="s" s="2">
+      <c r="F154" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G154" t="s" s="2">
+      <c r="G154" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H154" t="s" s="2">
+      <c r="H154" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4612,28 +4624,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="B156" t="s" s="2">
+      <c r="B156" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C156" t="s" s="2">
+      <c r="C156" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D156" t="s" s="2">
+      <c r="D156" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E156" t="s" s="2">
+      <c r="E156" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F156" t="s" s="2">
+      <c r="F156" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G156" t="s" s="2">
+      <c r="G156" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H156" t="s" s="2">
+      <c r="H156" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I156" t="s" s="2">
+      <c r="I156" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4721,10 +4733,10 @@
       <c r="I159">
         <f>((C159-C158)^2+(D159- D158)^2)^.5</f>
       </c>
-      <c r="J159" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K159" s="2" t="s">
+      <c r="J159" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K159" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L159" t="n">
@@ -4768,28 +4780,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="s" s="2">
+      <c r="A161" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B161" t="s" s="2">
+      <c r="B161" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C161" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D161" t="s" s="2">
+      <c r="C161" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D161" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E161" t="s" s="2">
+      <c r="E161" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F161" t="s" s="2">
+      <c r="F161" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G161" t="s" s="2">
+      <c r="G161" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H161" t="s" s="2">
+      <c r="H161" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4814,28 +4826,28 @@
       </c>
     </row>
     <row r="163">
-      <c r="B163" t="s" s="2">
+      <c r="B163" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C163" t="s" s="2">
+      <c r="C163" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D163" t="s" s="2">
+      <c r="D163" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E163" t="s" s="2">
+      <c r="E163" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F163" t="s" s="2">
+      <c r="F163" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G163" t="s" s="2">
+      <c r="G163" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H163" t="s" s="2">
+      <c r="H163" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I163" t="s" s="2">
+      <c r="I163" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4923,10 +4935,10 @@
       <c r="I166">
         <f>((C166-C165)^2+(D166- D165)^2)^.5</f>
       </c>
-      <c r="J166" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K166" s="2" t="s">
+      <c r="J166" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K166" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L166" t="n">
@@ -4970,28 +4982,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="s" s="2">
+      <c r="A168" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B168" t="s" s="2">
+      <c r="B168" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C168" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D168" t="s" s="2">
+      <c r="C168" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D168" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E168" t="s" s="2">
+      <c r="E168" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F168" t="s" s="2">
+      <c r="F168" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G168" t="s" s="2">
+      <c r="G168" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H168" t="s" s="2">
+      <c r="H168" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5016,28 +5028,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="B170" t="s" s="2">
+      <c r="B170" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C170" t="s" s="2">
+      <c r="C170" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D170" t="s" s="2">
+      <c r="D170" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E170" t="s" s="2">
+      <c r="E170" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F170" t="s" s="2">
+      <c r="F170" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G170" t="s" s="2">
+      <c r="G170" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H170" t="s" s="2">
+      <c r="H170" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I170" t="s" s="2">
+      <c r="I170" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5125,10 +5137,10 @@
       <c r="I173">
         <f>((C173-C172)^2+(D173- D172)^2)^.5</f>
       </c>
-      <c r="J173" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K173" s="2" t="s">
+      <c r="J173" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K173" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L173" t="n">
@@ -5172,28 +5184,28 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="s" s="2">
+      <c r="A175" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B175" t="s" s="2">
+      <c r="B175" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C175" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D175" t="s" s="2">
+      <c r="C175" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D175" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E175" t="s" s="2">
+      <c r="E175" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F175" t="s" s="2">
+      <c r="F175" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G175" t="s" s="2">
+      <c r="G175" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H175" t="s" s="2">
+      <c r="H175" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5218,28 +5230,28 @@
       </c>
     </row>
     <row r="177">
-      <c r="B177" t="s" s="2">
+      <c r="B177" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C177" t="s" s="2">
+      <c r="C177" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D177" t="s" s="2">
+      <c r="D177" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E177" t="s" s="2">
+      <c r="E177" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F177" t="s" s="2">
+      <c r="F177" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G177" t="s" s="2">
+      <c r="G177" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H177" t="s" s="2">
+      <c r="H177" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I177" t="s" s="2">
+      <c r="I177" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5298,10 +5310,10 @@
       <c r="I179">
         <f>((C179-C178)^2+(D179- D178)^2)^.5</f>
       </c>
-      <c r="J179" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K179" s="2" t="s">
+      <c r="J179" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K179" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L179" t="n">
@@ -5345,28 +5357,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="s" s="2">
+      <c r="A181" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B181" t="s" s="2">
+      <c r="B181" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C181" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D181" t="s" s="2">
+      <c r="C181" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D181" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E181" t="s" s="2">
+      <c r="E181" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F181" t="s" s="2">
+      <c r="F181" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G181" t="s" s="2">
+      <c r="G181" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H181" t="s" s="2">
+      <c r="H181" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5391,28 +5403,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="B183" t="s" s="2">
+      <c r="B183" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C183" t="s" s="2">
+      <c r="C183" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D183" t="s" s="2">
+      <c r="D183" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E183" t="s" s="2">
+      <c r="E183" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F183" t="s" s="2">
+      <c r="F183" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G183" t="s" s="2">
+      <c r="G183" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H183" t="s" s="2">
+      <c r="H183" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I183" t="s" s="2">
+      <c r="I183" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5471,10 +5483,10 @@
       <c r="I185">
         <f>((C185-C184)^2+(D185- D184)^2)^.5</f>
       </c>
-      <c r="J185" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K185" s="2" t="s">
+      <c r="J185" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K185" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L185" t="n">
@@ -5518,28 +5530,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="s" s="2">
+      <c r="A187" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B187" t="s" s="2">
+      <c r="B187" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C187" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D187" t="s" s="2">
+      <c r="C187" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D187" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E187" t="s" s="2">
+      <c r="E187" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F187" t="s" s="2">
+      <c r="F187" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G187" t="s" s="2">
+      <c r="G187" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H187" t="s" s="2">
+      <c r="H187" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5564,28 +5576,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="B189" t="s" s="2">
+      <c r="B189" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C189" t="s" s="2">
+      <c r="C189" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D189" t="s" s="2">
+      <c r="D189" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E189" t="s" s="2">
+      <c r="E189" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F189" t="s" s="2">
+      <c r="F189" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G189" t="s" s="2">
+      <c r="G189" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H189" t="s" s="2">
+      <c r="H189" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I189" t="s" s="2">
+      <c r="I189" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5673,10 +5685,10 @@
       <c r="I192">
         <f>((C192-C191)^2+(D192- D191)^2)^.5</f>
       </c>
-      <c r="J192" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K192" s="2" t="s">
+      <c r="J192" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K192" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L192" t="n">
@@ -5720,28 +5732,28 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="s" s="2">
+      <c r="A194" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B194" t="s" s="2">
+      <c r="B194" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C194" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D194" t="s" s="2">
+      <c r="C194" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D194" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E194" t="s" s="2">
+      <c r="E194" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F194" t="s" s="2">
+      <c r="F194" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G194" t="s" s="2">
+      <c r="G194" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H194" t="s" s="2">
+      <c r="H194" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5766,28 +5778,28 @@
       </c>
     </row>
     <row r="196">
-      <c r="B196" t="s" s="2">
+      <c r="B196" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C196" t="s" s="2">
+      <c r="C196" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D196" t="s" s="2">
+      <c r="D196" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E196" t="s" s="2">
+      <c r="E196" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F196" t="s" s="2">
+      <c r="F196" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G196" t="s" s="2">
+      <c r="G196" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H196" t="s" s="2">
+      <c r="H196" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I196" t="s" s="2">
+      <c r="I196" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5846,10 +5858,10 @@
       <c r="I198">
         <f>((C198-C197)^2+(D198- D197)^2)^.5</f>
       </c>
-      <c r="J198" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K198" s="2" t="s">
+      <c r="J198" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K198" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L198" t="n">
@@ -5893,28 +5905,28 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="s" s="2">
+      <c r="A200" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B200" t="s" s="2">
+      <c r="B200" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C200" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D200" t="s" s="2">
+      <c r="C200" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D200" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E200" t="s" s="2">
+      <c r="E200" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F200" t="s" s="2">
+      <c r="F200" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G200" t="s" s="2">
+      <c r="G200" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H200" t="s" s="2">
+      <c r="H200" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5939,28 +5951,28 @@
       </c>
     </row>
     <row r="202">
-      <c r="B202" t="s" s="2">
+      <c r="B202" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C202" t="s" s="2">
+      <c r="C202" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D202" t="s" s="2">
+      <c r="D202" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E202" t="s" s="2">
+      <c r="E202" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F202" t="s" s="2">
+      <c r="F202" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G202" t="s" s="2">
+      <c r="G202" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H202" t="s" s="2">
+      <c r="H202" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I202" t="s" s="2">
+      <c r="I202" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6019,10 +6031,10 @@
       <c r="I204">
         <f>((C204-C203)^2+(D204- D203)^2)^.5</f>
       </c>
-      <c r="J204" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K204" s="2" t="s">
+      <c r="J204" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K204" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L204" t="n">
@@ -6066,28 +6078,28 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="s" s="2">
+      <c r="A206" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B206" t="s" s="2">
+      <c r="B206" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C206" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D206" t="s" s="2">
+      <c r="C206" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D206" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E206" t="s" s="2">
+      <c r="E206" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F206" t="s" s="2">
+      <c r="F206" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G206" t="s" s="2">
+      <c r="G206" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H206" t="s" s="2">
+      <c r="H206" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6112,28 +6124,28 @@
       </c>
     </row>
     <row r="208">
-      <c r="B208" t="s" s="2">
+      <c r="B208" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C208" t="s" s="2">
+      <c r="C208" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D208" t="s" s="2">
+      <c r="D208" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E208" t="s" s="2">
+      <c r="E208" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F208" t="s" s="2">
+      <c r="F208" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G208" t="s" s="2">
+      <c r="G208" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H208" t="s" s="2">
+      <c r="H208" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I208" t="s" s="2">
+      <c r="I208" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6192,10 +6204,10 @@
       <c r="I210">
         <f>((C210-C209)^2+(D210- D209)^2)^.5</f>
       </c>
-      <c r="J210" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K210" s="2" t="s">
+      <c r="J210" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K210" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L210" t="n">
@@ -6239,28 +6251,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="s" s="2">
+      <c r="A212" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B212" t="s" s="2">
+      <c r="B212" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C212" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D212" t="s" s="2">
+      <c r="C212" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D212" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E212" t="s" s="2">
+      <c r="E212" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F212" t="s" s="2">
+      <c r="F212" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G212" t="s" s="2">
+      <c r="G212" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H212" t="s" s="2">
+      <c r="H212" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6285,28 +6297,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="B214" t="s" s="2">
+      <c r="B214" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C214" t="s" s="2">
+      <c r="C214" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D214" t="s" s="2">
+      <c r="D214" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E214" t="s" s="2">
+      <c r="E214" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F214" t="s" s="2">
+      <c r="F214" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G214" t="s" s="2">
+      <c r="G214" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H214" t="s" s="2">
+      <c r="H214" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I214" t="s" s="2">
+      <c r="I214" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6365,10 +6377,10 @@
       <c r="I216">
         <f>((C216-C215)^2+(D216- D215)^2)^.5</f>
       </c>
-      <c r="J216" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K216" s="2" t="s">
+      <c r="J216" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K216" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L216" t="n">
@@ -6412,28 +6424,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="s" s="2">
+      <c r="A218" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B218" t="s" s="2">
+      <c r="B218" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C218" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D218" t="s" s="2">
+      <c r="C218" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D218" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E218" t="s" s="2">
+      <c r="E218" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F218" t="s" s="2">
+      <c r="F218" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G218" t="s" s="2">
+      <c r="G218" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H218" t="s" s="2">
+      <c r="H218" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6458,28 +6470,28 @@
       </c>
     </row>
     <row r="220">
-      <c r="B220" t="s" s="2">
+      <c r="B220" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C220" t="s" s="2">
+      <c r="C220" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D220" t="s" s="2">
+      <c r="D220" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E220" t="s" s="2">
+      <c r="E220" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F220" t="s" s="2">
+      <c r="F220" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G220" t="s" s="2">
+      <c r="G220" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H220" t="s" s="2">
+      <c r="H220" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I220" t="s" s="2">
+      <c r="I220" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6567,10 +6579,10 @@
       <c r="I223">
         <f>((C223-C222)^2+(D223- D222)^2)^.5</f>
       </c>
-      <c r="J223" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K223" s="2" t="s">
+      <c r="J223" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K223" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L223" t="n">
@@ -6614,28 +6626,28 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="s" s="2">
+      <c r="A225" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B225" t="s" s="2">
+      <c r="B225" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C225" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D225" t="s" s="2">
+      <c r="C225" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D225" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E225" t="s" s="2">
+      <c r="E225" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F225" t="s" s="2">
+      <c r="F225" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G225" t="s" s="2">
+      <c r="G225" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H225" t="s" s="2">
+      <c r="H225" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6660,28 +6672,28 @@
       </c>
     </row>
     <row r="227">
-      <c r="B227" t="s" s="2">
+      <c r="B227" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C227" t="s" s="2">
+      <c r="C227" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D227" t="s" s="2">
+      <c r="D227" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E227" t="s" s="2">
+      <c r="E227" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F227" t="s" s="2">
+      <c r="F227" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G227" t="s" s="2">
+      <c r="G227" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H227" t="s" s="2">
+      <c r="H227" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I227" t="s" s="2">
+      <c r="I227" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6798,10 +6810,10 @@
       <c r="I231">
         <f>((C231-C230)^2+(D231- D230)^2)^.5</f>
       </c>
-      <c r="J231" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K231" s="2" t="s">
+      <c r="J231" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K231" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L231" t="n">
@@ -6845,28 +6857,28 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="s" s="2">
+      <c r="A233" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B233" t="s" s="2">
+      <c r="B233" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C233" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D233" t="s" s="2">
+      <c r="C233" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D233" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E233" t="s" s="2">
+      <c r="E233" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F233" t="s" s="2">
+      <c r="F233" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G233" t="s" s="2">
+      <c r="G233" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H233" t="s" s="2">
+      <c r="H233" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6891,28 +6903,28 @@
       </c>
     </row>
     <row r="235">
-      <c r="B235" t="s" s="2">
+      <c r="B235" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C235" t="s" s="2">
+      <c r="C235" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D235" t="s" s="2">
+      <c r="D235" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E235" t="s" s="2">
+      <c r="E235" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F235" t="s" s="2">
+      <c r="F235" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G235" t="s" s="2">
+      <c r="G235" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H235" t="s" s="2">
+      <c r="H235" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I235" t="s" s="2">
+      <c r="I235" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7029,10 +7041,10 @@
       <c r="I239">
         <f>((C239-C238)^2+(D239- D238)^2)^.5</f>
       </c>
-      <c r="J239" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K239" s="2" t="s">
+      <c r="J239" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K239" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L239" t="n">
@@ -7076,28 +7088,28 @@
       </c>
     </row>
     <row r="241">
-      <c r="A241" t="s" s="2">
+      <c r="A241" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B241" t="s" s="2">
+      <c r="B241" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C241" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D241" t="s" s="2">
+      <c r="C241" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D241" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E241" t="s" s="2">
+      <c r="E241" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F241" t="s" s="2">
+      <c r="F241" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G241" t="s" s="2">
+      <c r="G241" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H241" t="s" s="2">
+      <c r="H241" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7122,28 +7134,28 @@
       </c>
     </row>
     <row r="243">
-      <c r="B243" t="s" s="2">
+      <c r="B243" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C243" t="s" s="2">
+      <c r="C243" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D243" t="s" s="2">
+      <c r="D243" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E243" t="s" s="2">
+      <c r="E243" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F243" t="s" s="2">
+      <c r="F243" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G243" t="s" s="2">
+      <c r="G243" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H243" t="s" s="2">
+      <c r="H243" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I243" t="s" s="2">
+      <c r="I243" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7202,10 +7214,10 @@
       <c r="I245">
         <f>((C245-C244)^2+(D245- D244)^2)^.5</f>
       </c>
-      <c r="J245" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K245" s="2" t="s">
+      <c r="J245" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K245" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L245" t="n">
@@ -7249,28 +7261,28 @@
       </c>
     </row>
     <row r="247">
-      <c r="A247" t="s" s="2">
+      <c r="A247" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B247" t="s" s="2">
+      <c r="B247" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C247" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D247" t="s" s="2">
+      <c r="C247" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D247" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E247" t="s" s="2">
+      <c r="E247" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F247" t="s" s="2">
+      <c r="F247" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G247" t="s" s="2">
+      <c r="G247" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H247" t="s" s="2">
+      <c r="H247" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7295,28 +7307,28 @@
       </c>
     </row>
     <row r="249">
-      <c r="B249" t="s" s="2">
+      <c r="B249" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C249" t="s" s="2">
+      <c r="C249" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D249" t="s" s="2">
+      <c r="D249" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E249" t="s" s="2">
+      <c r="E249" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F249" t="s" s="2">
+      <c r="F249" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G249" t="s" s="2">
+      <c r="G249" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H249" t="s" s="2">
+      <c r="H249" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I249" t="s" s="2">
+      <c r="I249" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7433,10 +7445,10 @@
       <c r="I253">
         <f>((C253-C252)^2+(D253- D252)^2)^.5</f>
       </c>
-      <c r="J253" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K253" s="2" t="s">
+      <c r="J253" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K253" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L253" t="n">
@@ -7480,28 +7492,28 @@
       </c>
     </row>
     <row r="255">
-      <c r="A255" t="s" s="2">
+      <c r="A255" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B255" t="s" s="2">
+      <c r="B255" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C255" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D255" t="s" s="2">
+      <c r="C255" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D255" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E255" t="s" s="2">
+      <c r="E255" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F255" t="s" s="2">
+      <c r="F255" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G255" t="s" s="2">
+      <c r="G255" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H255" t="s" s="2">
+      <c r="H255" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7526,28 +7538,28 @@
       </c>
     </row>
     <row r="257">
-      <c r="B257" t="s" s="2">
+      <c r="B257" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C257" t="s" s="2">
+      <c r="C257" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D257" t="s" s="2">
+      <c r="D257" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E257" t="s" s="2">
+      <c r="E257" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F257" t="s" s="2">
+      <c r="F257" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G257" t="s" s="2">
+      <c r="G257" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H257" t="s" s="2">
+      <c r="H257" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I257" t="s" s="2">
+      <c r="I257" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7635,10 +7647,10 @@
       <c r="I260">
         <f>((C260-C259)^2+(D260- D259)^2)^.5</f>
       </c>
-      <c r="J260" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K260" s="2" t="s">
+      <c r="J260" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K260" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L260" t="n">
@@ -7682,28 +7694,28 @@
       </c>
     </row>
     <row r="262">
-      <c r="A262" t="s" s="2">
+      <c r="A262" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B262" t="s" s="2">
+      <c r="B262" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C262" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D262" t="s" s="2">
+      <c r="C262" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D262" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E262" t="s" s="2">
+      <c r="E262" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F262" t="s" s="2">
+      <c r="F262" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G262" t="s" s="2">
+      <c r="G262" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H262" t="s" s="2">
+      <c r="H262" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7728,28 +7740,28 @@
       </c>
     </row>
     <row r="264">
-      <c r="B264" t="s" s="2">
+      <c r="B264" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C264" t="s" s="2">
+      <c r="C264" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D264" t="s" s="2">
+      <c r="D264" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E264" t="s" s="2">
+      <c r="E264" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F264" t="s" s="2">
+      <c r="F264" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G264" t="s" s="2">
+      <c r="G264" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H264" t="s" s="2">
+      <c r="H264" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I264" t="s" s="2">
+      <c r="I264" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7837,10 +7849,10 @@
       <c r="I267">
         <f>((C267-C266)^2+(D267- D266)^2)^.5</f>
       </c>
-      <c r="J267" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K267" s="2" t="s">
+      <c r="J267" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K267" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L267" t="n">
@@ -7884,28 +7896,28 @@
       </c>
     </row>
     <row r="269">
-      <c r="A269" t="s" s="2">
+      <c r="A269" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B269" t="s" s="2">
+      <c r="B269" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C269" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D269" t="s" s="2">
+      <c r="C269" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D269" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E269" t="s" s="2">
+      <c r="E269" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F269" t="s" s="2">
+      <c r="F269" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G269" t="s" s="2">
+      <c r="G269" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H269" t="s" s="2">
+      <c r="H269" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7930,28 +7942,28 @@
       </c>
     </row>
     <row r="271">
-      <c r="B271" t="s" s="2">
+      <c r="B271" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C271" t="s" s="2">
+      <c r="C271" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D271" t="s" s="2">
+      <c r="D271" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E271" t="s" s="2">
+      <c r="E271" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F271" t="s" s="2">
+      <c r="F271" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G271" t="s" s="2">
+      <c r="G271" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H271" t="s" s="2">
+      <c r="H271" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I271" t="s" s="2">
+      <c r="I271" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8039,10 +8051,10 @@
       <c r="I274">
         <f>((C274-C273)^2+(D274- D273)^2)^.5</f>
       </c>
-      <c r="J274" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K274" s="2" t="s">
+      <c r="J274" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K274" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L274" t="n">
@@ -8086,28 +8098,28 @@
       </c>
     </row>
     <row r="276">
-      <c r="A276" t="s" s="2">
+      <c r="A276" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B276" t="s" s="2">
+      <c r="B276" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C276" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D276" t="s" s="2">
+      <c r="C276" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D276" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E276" t="s" s="2">
+      <c r="E276" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F276" t="s" s="2">
+      <c r="F276" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G276" t="s" s="2">
+      <c r="G276" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H276" t="s" s="2">
+      <c r="H276" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8132,28 +8144,28 @@
       </c>
     </row>
     <row r="278">
-      <c r="B278" t="s" s="2">
+      <c r="B278" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C278" t="s" s="2">
+      <c r="C278" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D278" t="s" s="2">
+      <c r="D278" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E278" t="s" s="2">
+      <c r="E278" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F278" t="s" s="2">
+      <c r="F278" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G278" t="s" s="2">
+      <c r="G278" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H278" t="s" s="2">
+      <c r="H278" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I278" t="s" s="2">
+      <c r="I278" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8212,10 +8224,10 @@
       <c r="I280">
         <f>((C280-C279)^2+(D280- D279)^2)^.5</f>
       </c>
-      <c r="J280" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K280" s="2" t="s">
+      <c r="J280" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K280" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L280" t="n">
@@ -8259,28 +8271,28 @@
       </c>
     </row>
     <row r="282">
-      <c r="A282" t="s" s="2">
+      <c r="A282" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B282" t="s" s="2">
+      <c r="B282" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C282" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D282" t="s" s="2">
+      <c r="C282" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D282" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E282" t="s" s="2">
+      <c r="E282" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F282" t="s" s="2">
+      <c r="F282" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G282" t="s" s="2">
+      <c r="G282" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H282" t="s" s="2">
+      <c r="H282" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8305,28 +8317,28 @@
       </c>
     </row>
     <row r="284">
-      <c r="B284" t="s" s="2">
+      <c r="B284" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C284" t="s" s="2">
+      <c r="C284" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D284" t="s" s="2">
+      <c r="D284" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E284" t="s" s="2">
+      <c r="E284" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F284" t="s" s="2">
+      <c r="F284" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G284" t="s" s="2">
+      <c r="G284" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H284" t="s" s="2">
+      <c r="H284" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I284" t="s" s="2">
+      <c r="I284" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8385,10 +8397,10 @@
       <c r="I286">
         <f>((C286-C285)^2+(D286- D285)^2)^.5</f>
       </c>
-      <c r="J286" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K286" s="2" t="s">
+      <c r="J286" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K286" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L286" t="n">
@@ -8432,28 +8444,28 @@
       </c>
     </row>
     <row r="288">
-      <c r="A288" t="s" s="2">
+      <c r="A288" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B288" t="s" s="2">
+      <c r="B288" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C288" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D288" t="s" s="2">
+      <c r="C288" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D288" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E288" t="s" s="2">
+      <c r="E288" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F288" t="s" s="2">
+      <c r="F288" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G288" t="s" s="2">
+      <c r="G288" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H288" t="s" s="2">
+      <c r="H288" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8478,28 +8490,28 @@
       </c>
     </row>
     <row r="290">
-      <c r="B290" t="s" s="2">
+      <c r="B290" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C290" t="s" s="2">
+      <c r="C290" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D290" t="s" s="2">
+      <c r="D290" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E290" t="s" s="2">
+      <c r="E290" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F290" t="s" s="2">
+      <c r="F290" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G290" t="s" s="2">
+      <c r="G290" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H290" t="s" s="2">
+      <c r="H290" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I290" t="s" s="2">
+      <c r="I290" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8558,10 +8570,10 @@
       <c r="I292">
         <f>((C292-C291)^2+(D292- D291)^2)^.5</f>
       </c>
-      <c r="J292" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K292" s="2" t="s">
+      <c r="J292" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K292" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L292" t="n">
@@ -8605,28 +8617,28 @@
       </c>
     </row>
     <row r="294">
-      <c r="A294" t="s" s="2">
+      <c r="A294" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B294" t="s" s="2">
+      <c r="B294" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C294" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D294" t="s" s="2">
+      <c r="C294" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D294" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E294" t="s" s="2">
+      <c r="E294" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F294" t="s" s="2">
+      <c r="F294" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G294" t="s" s="2">
+      <c r="G294" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H294" t="s" s="2">
+      <c r="H294" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8651,28 +8663,28 @@
       </c>
     </row>
     <row r="296">
-      <c r="B296" t="s" s="2">
+      <c r="B296" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C296" t="s" s="2">
+      <c r="C296" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D296" t="s" s="2">
+      <c r="D296" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E296" t="s" s="2">
+      <c r="E296" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F296" t="s" s="2">
+      <c r="F296" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G296" t="s" s="2">
+      <c r="G296" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H296" t="s" s="2">
+      <c r="H296" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I296" t="s" s="2">
+      <c r="I296" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8731,10 +8743,10 @@
       <c r="I298">
         <f>((C298-C297)^2+(D298- D297)^2)^.5</f>
       </c>
-      <c r="J298" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K298" s="2" t="s">
+      <c r="J298" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K298" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L298" t="n">
@@ -8778,28 +8790,28 @@
       </c>
     </row>
     <row r="300">
-      <c r="A300" t="s" s="2">
+      <c r="A300" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B300" t="s" s="2">
+      <c r="B300" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C300" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D300" t="s" s="2">
+      <c r="C300" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D300" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E300" t="s" s="2">
+      <c r="E300" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F300" t="s" s="2">
+      <c r="F300" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G300" t="s" s="2">
+      <c r="G300" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H300" t="s" s="2">
+      <c r="H300" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8824,28 +8836,28 @@
       </c>
     </row>
     <row r="302">
-      <c r="B302" t="s" s="2">
+      <c r="B302" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C302" t="s" s="2">
+      <c r="C302" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D302" t="s" s="2">
+      <c r="D302" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E302" t="s" s="2">
+      <c r="E302" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F302" t="s" s="2">
+      <c r="F302" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G302" t="s" s="2">
+      <c r="G302" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H302" t="s" s="2">
+      <c r="H302" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I302" t="s" s="2">
+      <c r="I302" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8904,10 +8916,10 @@
       <c r="I304">
         <f>((C304-C303)^2+(D304- D303)^2)^.5</f>
       </c>
-      <c r="J304" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K304" s="2" t="s">
+      <c r="J304" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K304" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L304" t="n">
@@ -8951,28 +8963,28 @@
       </c>
     </row>
     <row r="306">
-      <c r="A306" t="s" s="2">
+      <c r="A306" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B306" t="s" s="2">
+      <c r="B306" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C306" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D306" t="s" s="2">
+      <c r="C306" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D306" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E306" t="s" s="2">
+      <c r="E306" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F306" t="s" s="2">
+      <c r="F306" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G306" t="s" s="2">
+      <c r="G306" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H306" t="s" s="2">
+      <c r="H306" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8997,28 +9009,28 @@
       </c>
     </row>
     <row r="308">
-      <c r="B308" t="s" s="2">
+      <c r="B308" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C308" t="s" s="2">
+      <c r="C308" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D308" t="s" s="2">
+      <c r="D308" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E308" t="s" s="2">
+      <c r="E308" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F308" t="s" s="2">
+      <c r="F308" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G308" t="s" s="2">
+      <c r="G308" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H308" t="s" s="2">
+      <c r="H308" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I308" t="s" s="2">
+      <c r="I308" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9077,10 +9089,10 @@
       <c r="I310">
         <f>((C310-C309)^2+(D310- D309)^2)^.5</f>
       </c>
-      <c r="J310" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K310" s="2" t="s">
+      <c r="J310" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K310" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L310" t="n">
@@ -9124,28 +9136,28 @@
       </c>
     </row>
     <row r="312">
-      <c r="A312" t="s" s="2">
+      <c r="A312" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B312" t="s" s="2">
+      <c r="B312" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C312" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D312" t="s" s="2">
+      <c r="C312" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D312" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E312" t="s" s="2">
+      <c r="E312" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F312" t="s" s="2">
+      <c r="F312" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G312" t="s" s="2">
+      <c r="G312" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H312" t="s" s="2">
+      <c r="H312" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9170,28 +9182,28 @@
       </c>
     </row>
     <row r="314">
-      <c r="B314" t="s" s="2">
+      <c r="B314" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C314" t="s" s="2">
+      <c r="C314" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D314" t="s" s="2">
+      <c r="D314" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E314" t="s" s="2">
+      <c r="E314" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F314" t="s" s="2">
+      <c r="F314" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G314" t="s" s="2">
+      <c r="G314" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H314" t="s" s="2">
+      <c r="H314" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I314" t="s" s="2">
+      <c r="I314" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9279,10 +9291,10 @@
       <c r="I317">
         <f>((C317-C316)^2+(D317- D316)^2)^.5</f>
       </c>
-      <c r="J317" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K317" s="2" t="s">
+      <c r="J317" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K317" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L317" t="n">
@@ -9326,28 +9338,28 @@
       </c>
     </row>
     <row r="319">
-      <c r="A319" t="s" s="2">
+      <c r="A319" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B319" t="s" s="2">
+      <c r="B319" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C319" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D319" t="s" s="2">
+      <c r="C319" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D319" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E319" t="s" s="2">
+      <c r="E319" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F319" t="s" s="2">
+      <c r="F319" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G319" t="s" s="2">
+      <c r="G319" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H319" t="s" s="2">
+      <c r="H319" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9372,28 +9384,28 @@
       </c>
     </row>
     <row r="321">
-      <c r="B321" t="s" s="2">
+      <c r="B321" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C321" t="s" s="2">
+      <c r="C321" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D321" t="s" s="2">
+      <c r="D321" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E321" t="s" s="2">
+      <c r="E321" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F321" t="s" s="2">
+      <c r="F321" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G321" t="s" s="2">
+      <c r="G321" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H321" t="s" s="2">
+      <c r="H321" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I321" t="s" s="2">
+      <c r="I321" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9481,10 +9493,10 @@
       <c r="I324">
         <f>((C324-C323)^2+(D324- D323)^2)^.5</f>
       </c>
-      <c r="J324" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K324" s="2" t="s">
+      <c r="J324" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K324" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L324" t="n">
@@ -9528,28 +9540,28 @@
       </c>
     </row>
     <row r="326">
-      <c r="A326" t="s" s="2">
+      <c r="A326" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B326" t="s" s="2">
+      <c r="B326" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C326" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D326" t="s" s="2">
+      <c r="C326" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D326" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E326" t="s" s="2">
+      <c r="E326" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F326" t="s" s="2">
+      <c r="F326" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G326" t="s" s="2">
+      <c r="G326" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H326" t="s" s="2">
+      <c r="H326" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9574,28 +9586,28 @@
       </c>
     </row>
     <row r="328">
-      <c r="B328" t="s" s="2">
+      <c r="B328" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C328" t="s" s="2">
+      <c r="C328" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D328" t="s" s="2">
+      <c r="D328" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E328" t="s" s="2">
+      <c r="E328" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F328" t="s" s="2">
+      <c r="F328" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G328" t="s" s="2">
+      <c r="G328" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H328" t="s" s="2">
+      <c r="H328" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I328" t="s" s="2">
+      <c r="I328" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9654,10 +9666,10 @@
       <c r="I330">
         <f>((C330-C329)^2+(D330- D329)^2)^.5</f>
       </c>
-      <c r="J330" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K330" s="2" t="s">
+      <c r="J330" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K330" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L330" t="n">
@@ -9701,28 +9713,28 @@
       </c>
     </row>
     <row r="332">
-      <c r="A332" t="s" s="2">
+      <c r="A332" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B332" t="s" s="2">
+      <c r="B332" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C332" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D332" t="s" s="2">
+      <c r="C332" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D332" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E332" t="s" s="2">
+      <c r="E332" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F332" t="s" s="2">
+      <c r="F332" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G332" t="s" s="2">
+      <c r="G332" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H332" t="s" s="2">
+      <c r="H332" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9747,28 +9759,28 @@
       </c>
     </row>
     <row r="334">
-      <c r="B334" t="s" s="2">
+      <c r="B334" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C334" t="s" s="2">
+      <c r="C334" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D334" t="s" s="2">
+      <c r="D334" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E334" t="s" s="2">
+      <c r="E334" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F334" t="s" s="2">
+      <c r="F334" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G334" t="s" s="2">
+      <c r="G334" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H334" t="s" s="2">
+      <c r="H334" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I334" t="s" s="2">
+      <c r="I334" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9827,10 +9839,10 @@
       <c r="I336">
         <f>((C336-C335)^2+(D336- D335)^2)^.5</f>
       </c>
-      <c r="J336" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K336" s="2" t="s">
+      <c r="J336" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K336" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L336" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c103_I1_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c103_I1_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3448" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10344" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,53 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="13">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -143,12 +183,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -171,26 +219,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true">
-      <c r="A1" t="s" s="4">
+    <row r="1" s="12" customFormat="true">
+      <c r="A1" t="s" s="12">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="4">
+      <c r="B1" t="s" s="12">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="4">
+      <c r="C1" t="s" s="12">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="4">
+      <c r="D1" t="s" s="12">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="4">
+      <c r="E1" t="s" s="12">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="4">
+      <c r="F1" t="s" s="12">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="4">
+      <c r="G1" t="s" s="12">
         <v>7</v>
       </c>
     </row>
@@ -218,28 +266,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="4">
+      <c r="A3" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="4">
+      <c r="B3" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="4">
+      <c r="C3" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="4">
+      <c r="E3" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="4">
+      <c r="F3" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="4">
+      <c r="G3" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="4">
+      <c r="H3" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -264,28 +312,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="4">
+      <c r="B5" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="4">
+      <c r="C5" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="4">
+      <c r="D5" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="4">
+      <c r="E5" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="4">
+      <c r="F5" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="4">
+      <c r="G5" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="4">
+      <c r="H5" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="4">
+      <c r="I5" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -431,10 +479,10 @@
       <c r="I10">
         <f>((C10-C9)^2+(D10- D9)^2)^.5</f>
       </c>
-      <c r="J10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="4" t="s">
+      <c r="J10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L10" t="n">
@@ -478,28 +526,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="4">
+      <c r="A12" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B12" t="s" s="4">
+      <c r="B12" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C12" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s" s="4">
+      <c r="C12" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E12" t="s" s="4">
+      <c r="E12" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F12" t="s" s="4">
+      <c r="F12" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G12" t="s" s="4">
+      <c r="G12" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H12" t="s" s="4">
+      <c r="H12" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -524,28 +572,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="B14" t="s" s="4">
+      <c r="B14" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C14" t="s" s="4">
+      <c r="C14" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D14" t="s" s="4">
+      <c r="D14" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E14" t="s" s="4">
+      <c r="E14" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F14" t="s" s="4">
+      <c r="F14" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G14" t="s" s="4">
+      <c r="G14" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H14" t="s" s="4">
+      <c r="H14" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I14" t="s" s="4">
+      <c r="I14" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -662,10 +710,10 @@
       <c r="I18">
         <f>((C18-C17)^2+(D18- D17)^2)^.5</f>
       </c>
-      <c r="J18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K18" s="4" t="s">
+      <c r="J18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L18" t="n">
@@ -709,28 +757,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="4">
+      <c r="A20" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B20" t="s" s="4">
+      <c r="B20" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C20" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D20" t="s" s="4">
+      <c r="C20" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E20" t="s" s="4">
+      <c r="E20" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F20" t="s" s="4">
+      <c r="F20" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G20" t="s" s="4">
+      <c r="G20" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H20" t="s" s="4">
+      <c r="H20" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -755,28 +803,28 @@
       </c>
     </row>
     <row r="22">
-      <c r="B22" t="s" s="4">
+      <c r="B22" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C22" t="s" s="4">
+      <c r="C22" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D22" t="s" s="4">
+      <c r="D22" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E22" t="s" s="4">
+      <c r="E22" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F22" t="s" s="4">
+      <c r="F22" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G22" t="s" s="4">
+      <c r="G22" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H22" t="s" s="4">
+      <c r="H22" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I22" t="s" s="4">
+      <c r="I22" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -835,10 +883,10 @@
       <c r="I24">
         <f>((C24-C23)^2+(D24- D23)^2)^.5</f>
       </c>
-      <c r="J24" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="4" t="s">
+      <c r="J24" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L24" t="n">
@@ -882,28 +930,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s" s="4">
+      <c r="A26" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B26" t="s" s="4">
+      <c r="B26" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C26" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D26" t="s" s="4">
+      <c r="C26" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E26" t="s" s="4">
+      <c r="E26" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F26" t="s" s="4">
+      <c r="F26" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G26" t="s" s="4">
+      <c r="G26" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H26" t="s" s="4">
+      <c r="H26" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -928,28 +976,28 @@
       </c>
     </row>
     <row r="28">
-      <c r="B28" t="s" s="4">
+      <c r="B28" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C28" t="s" s="4">
+      <c r="C28" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D28" t="s" s="4">
+      <c r="D28" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E28" t="s" s="4">
+      <c r="E28" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F28" t="s" s="4">
+      <c r="F28" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G28" t="s" s="4">
+      <c r="G28" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H28" t="s" s="4">
+      <c r="H28" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I28" t="s" s="4">
+      <c r="I28" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1037,10 +1085,10 @@
       <c r="I31">
         <f>((C31-C30)^2+(D31- D30)^2)^.5</f>
       </c>
-      <c r="J31" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K31" s="4" t="s">
+      <c r="J31" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K31" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L31" t="n">
@@ -1084,28 +1132,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s" s="4">
+      <c r="A33" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B33" t="s" s="4">
+      <c r="B33" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C33" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D33" t="s" s="4">
+      <c r="C33" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D33" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E33" t="s" s="4">
+      <c r="E33" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F33" t="s" s="4">
+      <c r="F33" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G33" t="s" s="4">
+      <c r="G33" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H33" t="s" s="4">
+      <c r="H33" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1130,28 +1178,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="B35" t="s" s="4">
+      <c r="B35" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C35" t="s" s="4">
+      <c r="C35" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D35" t="s" s="4">
+      <c r="D35" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E35" t="s" s="4">
+      <c r="E35" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F35" t="s" s="4">
+      <c r="F35" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G35" t="s" s="4">
+      <c r="G35" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H35" t="s" s="4">
+      <c r="H35" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I35" t="s" s="4">
+      <c r="I35" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1239,10 +1287,10 @@
       <c r="I38">
         <f>((C38-C37)^2+(D38- D37)^2)^.5</f>
       </c>
-      <c r="J38" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K38" s="4" t="s">
+      <c r="J38" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K38" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L38" t="n">
@@ -1286,28 +1334,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s" s="4">
+      <c r="A40" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B40" t="s" s="4">
+      <c r="B40" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C40" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D40" t="s" s="4">
+      <c r="C40" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E40" t="s" s="4">
+      <c r="E40" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F40" t="s" s="4">
+      <c r="F40" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G40" t="s" s="4">
+      <c r="G40" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H40" t="s" s="4">
+      <c r="H40" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1332,28 +1380,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="B42" t="s" s="4">
+      <c r="B42" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C42" t="s" s="4">
+      <c r="C42" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D42" t="s" s="4">
+      <c r="D42" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E42" t="s" s="4">
+      <c r="E42" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F42" t="s" s="4">
+      <c r="F42" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G42" t="s" s="4">
+      <c r="G42" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H42" t="s" s="4">
+      <c r="H42" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I42" t="s" s="4">
+      <c r="I42" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1470,10 +1518,10 @@
       <c r="I46">
         <f>((C46-C45)^2+(D46- D45)^2)^.5</f>
       </c>
-      <c r="J46" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K46" s="4" t="s">
+      <c r="J46" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K46" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L46" t="n">
@@ -1517,28 +1565,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s" s="4">
+      <c r="A48" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B48" t="s" s="4">
+      <c r="B48" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C48" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D48" t="s" s="4">
+      <c r="C48" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D48" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E48" t="s" s="4">
+      <c r="E48" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F48" t="s" s="4">
+      <c r="F48" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G48" t="s" s="4">
+      <c r="G48" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H48" t="s" s="4">
+      <c r="H48" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1563,28 +1611,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="B50" t="s" s="4">
+      <c r="B50" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C50" t="s" s="4">
+      <c r="C50" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D50" t="s" s="4">
+      <c r="D50" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E50" t="s" s="4">
+      <c r="E50" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F50" t="s" s="4">
+      <c r="F50" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G50" t="s" s="4">
+      <c r="G50" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H50" t="s" s="4">
+      <c r="H50" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I50" t="s" s="4">
+      <c r="I50" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1672,10 +1720,10 @@
       <c r="I53">
         <f>((C53-C52)^2+(D53- D52)^2)^.5</f>
       </c>
-      <c r="J53" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K53" s="4" t="s">
+      <c r="J53" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K53" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L53" t="n">
@@ -1719,28 +1767,28 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="s" s="4">
+      <c r="A55" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B55" t="s" s="4">
+      <c r="B55" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C55" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D55" t="s" s="4">
+      <c r="C55" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D55" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E55" t="s" s="4">
+      <c r="E55" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F55" t="s" s="4">
+      <c r="F55" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G55" t="s" s="4">
+      <c r="G55" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H55" t="s" s="4">
+      <c r="H55" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1765,28 +1813,28 @@
       </c>
     </row>
     <row r="57">
-      <c r="B57" t="s" s="4">
+      <c r="B57" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C57" t="s" s="4">
+      <c r="C57" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D57" t="s" s="4">
+      <c r="D57" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E57" t="s" s="4">
+      <c r="E57" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F57" t="s" s="4">
+      <c r="F57" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G57" t="s" s="4">
+      <c r="G57" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H57" t="s" s="4">
+      <c r="H57" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I57" t="s" s="4">
+      <c r="I57" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1903,10 +1951,10 @@
       <c r="I61">
         <f>((C61-C60)^2+(D61- D60)^2)^.5</f>
       </c>
-      <c r="J61" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K61" s="4" t="s">
+      <c r="J61" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K61" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L61" t="n">
@@ -1950,28 +1998,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="s" s="4">
+      <c r="A63" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B63" t="s" s="4">
+      <c r="B63" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C63" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D63" t="s" s="4">
+      <c r="C63" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D63" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E63" t="s" s="4">
+      <c r="E63" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F63" t="s" s="4">
+      <c r="F63" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G63" t="s" s="4">
+      <c r="G63" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H63" t="s" s="4">
+      <c r="H63" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1996,28 +2044,28 @@
       </c>
     </row>
     <row r="65">
-      <c r="B65" t="s" s="4">
+      <c r="B65" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C65" t="s" s="4">
+      <c r="C65" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D65" t="s" s="4">
+      <c r="D65" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E65" t="s" s="4">
+      <c r="E65" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F65" t="s" s="4">
+      <c r="F65" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G65" t="s" s="4">
+      <c r="G65" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H65" t="s" s="4">
+      <c r="H65" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I65" t="s" s="4">
+      <c r="I65" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2163,10 +2211,10 @@
       <c r="I70">
         <f>((C70-C69)^2+(D70- D69)^2)^.5</f>
       </c>
-      <c r="J70" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K70" s="4" t="s">
+      <c r="J70" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K70" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L70" t="n">
@@ -2210,28 +2258,28 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="s" s="4">
+      <c r="A72" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B72" t="s" s="4">
+      <c r="B72" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C72" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D72" t="s" s="4">
+      <c r="C72" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D72" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E72" t="s" s="4">
+      <c r="E72" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F72" t="s" s="4">
+      <c r="F72" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G72" t="s" s="4">
+      <c r="G72" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H72" t="s" s="4">
+      <c r="H72" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2256,28 +2304,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="B74" t="s" s="4">
+      <c r="B74" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C74" t="s" s="4">
+      <c r="C74" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D74" t="s" s="4">
+      <c r="D74" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E74" t="s" s="4">
+      <c r="E74" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F74" t="s" s="4">
+      <c r="F74" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G74" t="s" s="4">
+      <c r="G74" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H74" t="s" s="4">
+      <c r="H74" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I74" t="s" s="4">
+      <c r="I74" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2423,10 +2471,10 @@
       <c r="I79">
         <f>((C79-C78)^2+(D79- D78)^2)^.5</f>
       </c>
-      <c r="J79" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K79" s="4" t="s">
+      <c r="J79" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K79" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L79" t="n">
@@ -2470,28 +2518,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="s" s="4">
+      <c r="A81" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B81" t="s" s="4">
+      <c r="B81" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C81" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D81" t="s" s="4">
+      <c r="C81" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D81" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E81" t="s" s="4">
+      <c r="E81" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F81" t="s" s="4">
+      <c r="F81" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G81" t="s" s="4">
+      <c r="G81" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H81" t="s" s="4">
+      <c r="H81" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2516,28 +2564,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="B83" t="s" s="4">
+      <c r="B83" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C83" t="s" s="4">
+      <c r="C83" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D83" t="s" s="4">
+      <c r="D83" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E83" t="s" s="4">
+      <c r="E83" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F83" t="s" s="4">
+      <c r="F83" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G83" t="s" s="4">
+      <c r="G83" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H83" t="s" s="4">
+      <c r="H83" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I83" t="s" s="4">
+      <c r="I83" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2683,10 +2731,10 @@
       <c r="I88">
         <f>((C88-C87)^2+(D88- D87)^2)^.5</f>
       </c>
-      <c r="J88" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K88" s="4" t="s">
+      <c r="J88" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K88" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L88" t="n">
@@ -2730,28 +2778,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="s" s="4">
+      <c r="A90" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B90" t="s" s="4">
+      <c r="B90" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C90" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D90" t="s" s="4">
+      <c r="C90" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D90" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E90" t="s" s="4">
+      <c r="E90" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F90" t="s" s="4">
+      <c r="F90" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G90" t="s" s="4">
+      <c r="G90" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H90" t="s" s="4">
+      <c r="H90" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2776,28 +2824,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="B92" t="s" s="4">
+      <c r="B92" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C92" t="s" s="4">
+      <c r="C92" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D92" t="s" s="4">
+      <c r="D92" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E92" t="s" s="4">
+      <c r="E92" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F92" t="s" s="4">
+      <c r="F92" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G92" t="s" s="4">
+      <c r="G92" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H92" t="s" s="4">
+      <c r="H92" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I92" t="s" s="4">
+      <c r="I92" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2885,10 +2933,10 @@
       <c r="I95">
         <f>((C95-C94)^2+(D95- D94)^2)^.5</f>
       </c>
-      <c r="J95" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K95" s="4" t="s">
+      <c r="J95" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K95" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L95" t="n">
@@ -2932,28 +2980,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="s" s="4">
+      <c r="A97" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B97" t="s" s="4">
+      <c r="B97" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C97" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D97" t="s" s="4">
+      <c r="C97" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D97" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E97" t="s" s="4">
+      <c r="E97" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F97" t="s" s="4">
+      <c r="F97" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G97" t="s" s="4">
+      <c r="G97" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H97" t="s" s="4">
+      <c r="H97" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2978,28 +3026,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="B99" t="s" s="4">
+      <c r="B99" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C99" t="s" s="4">
+      <c r="C99" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D99" t="s" s="4">
+      <c r="D99" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E99" t="s" s="4">
+      <c r="E99" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F99" t="s" s="4">
+      <c r="F99" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G99" t="s" s="4">
+      <c r="G99" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H99" t="s" s="4">
+      <c r="H99" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I99" t="s" s="4">
+      <c r="I99" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3203,10 +3251,10 @@
       <c r="I106">
         <f>((C106-C105)^2+(D106- D105)^2)^.5</f>
       </c>
-      <c r="J106" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K106" s="4" t="s">
+      <c r="J106" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K106" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L106" t="n">
@@ -3250,28 +3298,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="s" s="4">
+      <c r="A108" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B108" t="s" s="4">
+      <c r="B108" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C108" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D108" t="s" s="4">
+      <c r="C108" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D108" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E108" t="s" s="4">
+      <c r="E108" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F108" t="s" s="4">
+      <c r="F108" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G108" t="s" s="4">
+      <c r="G108" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H108" t="s" s="4">
+      <c r="H108" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3296,28 +3344,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="B110" t="s" s="4">
+      <c r="B110" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C110" t="s" s="4">
+      <c r="C110" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D110" t="s" s="4">
+      <c r="D110" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E110" t="s" s="4">
+      <c r="E110" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F110" t="s" s="4">
+      <c r="F110" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G110" t="s" s="4">
+      <c r="G110" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H110" t="s" s="4">
+      <c r="H110" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I110" t="s" s="4">
+      <c r="I110" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3434,10 +3482,10 @@
       <c r="I114">
         <f>((C114-C113)^2+(D114- D113)^2)^.5</f>
       </c>
-      <c r="J114" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K114" s="4" t="s">
+      <c r="J114" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K114" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L114" t="n">
@@ -3481,28 +3529,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="s" s="4">
+      <c r="A116" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B116" t="s" s="4">
+      <c r="B116" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C116" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D116" t="s" s="4">
+      <c r="C116" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D116" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E116" t="s" s="4">
+      <c r="E116" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F116" t="s" s="4">
+      <c r="F116" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G116" t="s" s="4">
+      <c r="G116" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H116" t="s" s="4">
+      <c r="H116" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3527,28 +3575,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="B118" t="s" s="4">
+      <c r="B118" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C118" t="s" s="4">
+      <c r="C118" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D118" t="s" s="4">
+      <c r="D118" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E118" t="s" s="4">
+      <c r="E118" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F118" t="s" s="4">
+      <c r="F118" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G118" t="s" s="4">
+      <c r="G118" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H118" t="s" s="4">
+      <c r="H118" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I118" t="s" s="4">
+      <c r="I118" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3665,10 +3713,10 @@
       <c r="I122">
         <f>((C122-C121)^2+(D122- D121)^2)^.5</f>
       </c>
-      <c r="J122" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K122" s="4" t="s">
+      <c r="J122" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K122" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L122" t="n">
@@ -3712,28 +3760,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="s" s="4">
+      <c r="A124" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B124" t="s" s="4">
+      <c r="B124" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C124" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D124" t="s" s="4">
+      <c r="C124" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D124" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E124" t="s" s="4">
+      <c r="E124" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F124" t="s" s="4">
+      <c r="F124" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G124" t="s" s="4">
+      <c r="G124" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H124" t="s" s="4">
+      <c r="H124" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3758,28 +3806,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="B126" t="s" s="4">
+      <c r="B126" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C126" t="s" s="4">
+      <c r="C126" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D126" t="s" s="4">
+      <c r="D126" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E126" t="s" s="4">
+      <c r="E126" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F126" t="s" s="4">
+      <c r="F126" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G126" t="s" s="4">
+      <c r="G126" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H126" t="s" s="4">
+      <c r="H126" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I126" t="s" s="4">
+      <c r="I126" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3867,10 +3915,10 @@
       <c r="I129">
         <f>((C129-C128)^2+(D129- D128)^2)^.5</f>
       </c>
-      <c r="J129" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K129" s="4" t="s">
+      <c r="J129" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K129" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L129" t="n">
@@ -3914,28 +3962,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="s" s="4">
+      <c r="A131" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B131" t="s" s="4">
+      <c r="B131" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C131" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D131" t="s" s="4">
+      <c r="C131" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D131" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E131" t="s" s="4">
+      <c r="E131" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F131" t="s" s="4">
+      <c r="F131" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G131" t="s" s="4">
+      <c r="G131" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H131" t="s" s="4">
+      <c r="H131" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3960,28 +4008,28 @@
       </c>
     </row>
     <row r="133">
-      <c r="B133" t="s" s="4">
+      <c r="B133" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C133" t="s" s="4">
+      <c r="C133" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D133" t="s" s="4">
+      <c r="D133" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E133" t="s" s="4">
+      <c r="E133" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F133" t="s" s="4">
+      <c r="F133" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G133" t="s" s="4">
+      <c r="G133" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H133" t="s" s="4">
+      <c r="H133" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I133" t="s" s="4">
+      <c r="I133" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4098,10 +4146,10 @@
       <c r="I137">
         <f>((C137-C136)^2+(D137- D136)^2)^.5</f>
       </c>
-      <c r="J137" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K137" s="4" t="s">
+      <c r="J137" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K137" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L137" t="n">
@@ -4145,28 +4193,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="s" s="4">
+      <c r="A139" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B139" t="s" s="4">
+      <c r="B139" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C139" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D139" t="s" s="4">
+      <c r="C139" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D139" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E139" t="s" s="4">
+      <c r="E139" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F139" t="s" s="4">
+      <c r="F139" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G139" t="s" s="4">
+      <c r="G139" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H139" t="s" s="4">
+      <c r="H139" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4191,28 +4239,28 @@
       </c>
     </row>
     <row r="141">
-      <c r="B141" t="s" s="4">
+      <c r="B141" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C141" t="s" s="4">
+      <c r="C141" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D141" t="s" s="4">
+      <c r="D141" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E141" t="s" s="4">
+      <c r="E141" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F141" t="s" s="4">
+      <c r="F141" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G141" t="s" s="4">
+      <c r="G141" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H141" t="s" s="4">
+      <c r="H141" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I141" t="s" s="4">
+      <c r="I141" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4300,10 +4348,10 @@
       <c r="I144">
         <f>((C144-C143)^2+(D144- D143)^2)^.5</f>
       </c>
-      <c r="J144" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K144" s="4" t="s">
+      <c r="J144" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K144" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L144" t="n">
@@ -4347,28 +4395,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="s" s="4">
+      <c r="A146" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B146" t="s" s="4">
+      <c r="B146" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C146" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D146" t="s" s="4">
+      <c r="C146" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D146" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E146" t="s" s="4">
+      <c r="E146" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F146" t="s" s="4">
+      <c r="F146" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G146" t="s" s="4">
+      <c r="G146" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H146" t="s" s="4">
+      <c r="H146" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4393,28 +4441,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="B148" t="s" s="4">
+      <c r="B148" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C148" t="s" s="4">
+      <c r="C148" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D148" t="s" s="4">
+      <c r="D148" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E148" t="s" s="4">
+      <c r="E148" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F148" t="s" s="4">
+      <c r="F148" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G148" t="s" s="4">
+      <c r="G148" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H148" t="s" s="4">
+      <c r="H148" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I148" t="s" s="4">
+      <c r="I148" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4531,10 +4579,10 @@
       <c r="I152">
         <f>((C152-C151)^2+(D152- D151)^2)^.5</f>
       </c>
-      <c r="J152" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K152" s="4" t="s">
+      <c r="J152" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K152" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L152" t="n">
@@ -4578,28 +4626,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="s" s="4">
+      <c r="A154" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B154" t="s" s="4">
+      <c r="B154" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C154" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D154" t="s" s="4">
+      <c r="C154" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D154" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E154" t="s" s="4">
+      <c r="E154" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F154" t="s" s="4">
+      <c r="F154" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G154" t="s" s="4">
+      <c r="G154" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H154" t="s" s="4">
+      <c r="H154" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4624,28 +4672,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="B156" t="s" s="4">
+      <c r="B156" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C156" t="s" s="4">
+      <c r="C156" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D156" t="s" s="4">
+      <c r="D156" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E156" t="s" s="4">
+      <c r="E156" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F156" t="s" s="4">
+      <c r="F156" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G156" t="s" s="4">
+      <c r="G156" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H156" t="s" s="4">
+      <c r="H156" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I156" t="s" s="4">
+      <c r="I156" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4733,10 +4781,10 @@
       <c r="I159">
         <f>((C159-C158)^2+(D159- D158)^2)^.5</f>
       </c>
-      <c r="J159" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K159" s="4" t="s">
+      <c r="J159" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K159" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L159" t="n">
@@ -4780,28 +4828,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="s" s="4">
+      <c r="A161" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B161" t="s" s="4">
+      <c r="B161" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C161" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D161" t="s" s="4">
+      <c r="C161" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D161" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E161" t="s" s="4">
+      <c r="E161" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F161" t="s" s="4">
+      <c r="F161" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G161" t="s" s="4">
+      <c r="G161" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H161" t="s" s="4">
+      <c r="H161" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4826,28 +4874,28 @@
       </c>
     </row>
     <row r="163">
-      <c r="B163" t="s" s="4">
+      <c r="B163" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C163" t="s" s="4">
+      <c r="C163" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D163" t="s" s="4">
+      <c r="D163" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E163" t="s" s="4">
+      <c r="E163" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F163" t="s" s="4">
+      <c r="F163" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G163" t="s" s="4">
+      <c r="G163" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H163" t="s" s="4">
+      <c r="H163" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I163" t="s" s="4">
+      <c r="I163" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4935,10 +4983,10 @@
       <c r="I166">
         <f>((C166-C165)^2+(D166- D165)^2)^.5</f>
       </c>
-      <c r="J166" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K166" s="4" t="s">
+      <c r="J166" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K166" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L166" t="n">
@@ -4982,28 +5030,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="s" s="4">
+      <c r="A168" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B168" t="s" s="4">
+      <c r="B168" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C168" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D168" t="s" s="4">
+      <c r="C168" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D168" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E168" t="s" s="4">
+      <c r="E168" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F168" t="s" s="4">
+      <c r="F168" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G168" t="s" s="4">
+      <c r="G168" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H168" t="s" s="4">
+      <c r="H168" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5028,28 +5076,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="B170" t="s" s="4">
+      <c r="B170" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C170" t="s" s="4">
+      <c r="C170" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D170" t="s" s="4">
+      <c r="D170" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E170" t="s" s="4">
+      <c r="E170" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F170" t="s" s="4">
+      <c r="F170" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G170" t="s" s="4">
+      <c r="G170" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H170" t="s" s="4">
+      <c r="H170" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I170" t="s" s="4">
+      <c r="I170" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5137,10 +5185,10 @@
       <c r="I173">
         <f>((C173-C172)^2+(D173- D172)^2)^.5</f>
       </c>
-      <c r="J173" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K173" s="4" t="s">
+      <c r="J173" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K173" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L173" t="n">
@@ -5184,28 +5232,28 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="s" s="4">
+      <c r="A175" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B175" t="s" s="4">
+      <c r="B175" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C175" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D175" t="s" s="4">
+      <c r="C175" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D175" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E175" t="s" s="4">
+      <c r="E175" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F175" t="s" s="4">
+      <c r="F175" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G175" t="s" s="4">
+      <c r="G175" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H175" t="s" s="4">
+      <c r="H175" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5230,28 +5278,28 @@
       </c>
     </row>
     <row r="177">
-      <c r="B177" t="s" s="4">
+      <c r="B177" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C177" t="s" s="4">
+      <c r="C177" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D177" t="s" s="4">
+      <c r="D177" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E177" t="s" s="4">
+      <c r="E177" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F177" t="s" s="4">
+      <c r="F177" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G177" t="s" s="4">
+      <c r="G177" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H177" t="s" s="4">
+      <c r="H177" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I177" t="s" s="4">
+      <c r="I177" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5310,10 +5358,10 @@
       <c r="I179">
         <f>((C179-C178)^2+(D179- D178)^2)^.5</f>
       </c>
-      <c r="J179" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K179" s="4" t="s">
+      <c r="J179" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K179" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L179" t="n">
@@ -5357,28 +5405,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="s" s="4">
+      <c r="A181" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B181" t="s" s="4">
+      <c r="B181" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C181" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D181" t="s" s="4">
+      <c r="C181" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D181" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E181" t="s" s="4">
+      <c r="E181" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F181" t="s" s="4">
+      <c r="F181" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G181" t="s" s="4">
+      <c r="G181" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H181" t="s" s="4">
+      <c r="H181" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5403,28 +5451,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="B183" t="s" s="4">
+      <c r="B183" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C183" t="s" s="4">
+      <c r="C183" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D183" t="s" s="4">
+      <c r="D183" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E183" t="s" s="4">
+      <c r="E183" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F183" t="s" s="4">
+      <c r="F183" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G183" t="s" s="4">
+      <c r="G183" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H183" t="s" s="4">
+      <c r="H183" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I183" t="s" s="4">
+      <c r="I183" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5483,10 +5531,10 @@
       <c r="I185">
         <f>((C185-C184)^2+(D185- D184)^2)^.5</f>
       </c>
-      <c r="J185" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K185" s="4" t="s">
+      <c r="J185" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K185" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L185" t="n">
@@ -5530,28 +5578,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="s" s="4">
+      <c r="A187" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B187" t="s" s="4">
+      <c r="B187" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C187" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D187" t="s" s="4">
+      <c r="C187" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D187" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E187" t="s" s="4">
+      <c r="E187" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F187" t="s" s="4">
+      <c r="F187" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G187" t="s" s="4">
+      <c r="G187" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H187" t="s" s="4">
+      <c r="H187" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5576,28 +5624,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="B189" t="s" s="4">
+      <c r="B189" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C189" t="s" s="4">
+      <c r="C189" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D189" t="s" s="4">
+      <c r="D189" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E189" t="s" s="4">
+      <c r="E189" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F189" t="s" s="4">
+      <c r="F189" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G189" t="s" s="4">
+      <c r="G189" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H189" t="s" s="4">
+      <c r="H189" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I189" t="s" s="4">
+      <c r="I189" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5685,10 +5733,10 @@
       <c r="I192">
         <f>((C192-C191)^2+(D192- D191)^2)^.5</f>
       </c>
-      <c r="J192" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K192" s="4" t="s">
+      <c r="J192" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K192" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L192" t="n">
@@ -5732,28 +5780,28 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="s" s="4">
+      <c r="A194" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B194" t="s" s="4">
+      <c r="B194" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C194" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D194" t="s" s="4">
+      <c r="C194" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D194" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E194" t="s" s="4">
+      <c r="E194" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F194" t="s" s="4">
+      <c r="F194" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G194" t="s" s="4">
+      <c r="G194" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H194" t="s" s="4">
+      <c r="H194" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5778,28 +5826,28 @@
       </c>
     </row>
     <row r="196">
-      <c r="B196" t="s" s="4">
+      <c r="B196" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C196" t="s" s="4">
+      <c r="C196" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D196" t="s" s="4">
+      <c r="D196" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E196" t="s" s="4">
+      <c r="E196" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F196" t="s" s="4">
+      <c r="F196" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G196" t="s" s="4">
+      <c r="G196" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H196" t="s" s="4">
+      <c r="H196" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I196" t="s" s="4">
+      <c r="I196" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5858,10 +5906,10 @@
       <c r="I198">
         <f>((C198-C197)^2+(D198- D197)^2)^.5</f>
       </c>
-      <c r="J198" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K198" s="4" t="s">
+      <c r="J198" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K198" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L198" t="n">
@@ -5905,28 +5953,28 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="s" s="4">
+      <c r="A200" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B200" t="s" s="4">
+      <c r="B200" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C200" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D200" t="s" s="4">
+      <c r="C200" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D200" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E200" t="s" s="4">
+      <c r="E200" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F200" t="s" s="4">
+      <c r="F200" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G200" t="s" s="4">
+      <c r="G200" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H200" t="s" s="4">
+      <c r="H200" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5951,28 +5999,28 @@
       </c>
     </row>
     <row r="202">
-      <c r="B202" t="s" s="4">
+      <c r="B202" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C202" t="s" s="4">
+      <c r="C202" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D202" t="s" s="4">
+      <c r="D202" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E202" t="s" s="4">
+      <c r="E202" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F202" t="s" s="4">
+      <c r="F202" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G202" t="s" s="4">
+      <c r="G202" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H202" t="s" s="4">
+      <c r="H202" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I202" t="s" s="4">
+      <c r="I202" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6031,10 +6079,10 @@
       <c r="I204">
         <f>((C204-C203)^2+(D204- D203)^2)^.5</f>
       </c>
-      <c r="J204" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K204" s="4" t="s">
+      <c r="J204" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K204" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L204" t="n">
@@ -6078,28 +6126,28 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="s" s="4">
+      <c r="A206" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B206" t="s" s="4">
+      <c r="B206" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C206" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D206" t="s" s="4">
+      <c r="C206" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D206" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E206" t="s" s="4">
+      <c r="E206" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F206" t="s" s="4">
+      <c r="F206" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G206" t="s" s="4">
+      <c r="G206" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H206" t="s" s="4">
+      <c r="H206" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6124,28 +6172,28 @@
       </c>
     </row>
     <row r="208">
-      <c r="B208" t="s" s="4">
+      <c r="B208" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C208" t="s" s="4">
+      <c r="C208" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D208" t="s" s="4">
+      <c r="D208" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E208" t="s" s="4">
+      <c r="E208" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F208" t="s" s="4">
+      <c r="F208" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G208" t="s" s="4">
+      <c r="G208" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H208" t="s" s="4">
+      <c r="H208" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I208" t="s" s="4">
+      <c r="I208" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6204,10 +6252,10 @@
       <c r="I210">
         <f>((C210-C209)^2+(D210- D209)^2)^.5</f>
       </c>
-      <c r="J210" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K210" s="4" t="s">
+      <c r="J210" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K210" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L210" t="n">
@@ -6251,28 +6299,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="s" s="4">
+      <c r="A212" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B212" t="s" s="4">
+      <c r="B212" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C212" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D212" t="s" s="4">
+      <c r="C212" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D212" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E212" t="s" s="4">
+      <c r="E212" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F212" t="s" s="4">
+      <c r="F212" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G212" t="s" s="4">
+      <c r="G212" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H212" t="s" s="4">
+      <c r="H212" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6297,28 +6345,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="B214" t="s" s="4">
+      <c r="B214" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C214" t="s" s="4">
+      <c r="C214" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D214" t="s" s="4">
+      <c r="D214" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E214" t="s" s="4">
+      <c r="E214" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F214" t="s" s="4">
+      <c r="F214" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G214" t="s" s="4">
+      <c r="G214" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H214" t="s" s="4">
+      <c r="H214" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I214" t="s" s="4">
+      <c r="I214" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6377,10 +6425,10 @@
       <c r="I216">
         <f>((C216-C215)^2+(D216- D215)^2)^.5</f>
       </c>
-      <c r="J216" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K216" s="4" t="s">
+      <c r="J216" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K216" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L216" t="n">
@@ -6424,28 +6472,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="s" s="4">
+      <c r="A218" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B218" t="s" s="4">
+      <c r="B218" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C218" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D218" t="s" s="4">
+      <c r="C218" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D218" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E218" t="s" s="4">
+      <c r="E218" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F218" t="s" s="4">
+      <c r="F218" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G218" t="s" s="4">
+      <c r="G218" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H218" t="s" s="4">
+      <c r="H218" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6470,28 +6518,28 @@
       </c>
     </row>
     <row r="220">
-      <c r="B220" t="s" s="4">
+      <c r="B220" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C220" t="s" s="4">
+      <c r="C220" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D220" t="s" s="4">
+      <c r="D220" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E220" t="s" s="4">
+      <c r="E220" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F220" t="s" s="4">
+      <c r="F220" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G220" t="s" s="4">
+      <c r="G220" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H220" t="s" s="4">
+      <c r="H220" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I220" t="s" s="4">
+      <c r="I220" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6579,10 +6627,10 @@
       <c r="I223">
         <f>((C223-C222)^2+(D223- D222)^2)^.5</f>
       </c>
-      <c r="J223" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K223" s="4" t="s">
+      <c r="J223" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K223" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L223" t="n">
@@ -6626,28 +6674,28 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="s" s="4">
+      <c r="A225" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B225" t="s" s="4">
+      <c r="B225" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C225" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D225" t="s" s="4">
+      <c r="C225" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D225" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E225" t="s" s="4">
+      <c r="E225" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F225" t="s" s="4">
+      <c r="F225" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G225" t="s" s="4">
+      <c r="G225" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H225" t="s" s="4">
+      <c r="H225" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6672,28 +6720,28 @@
       </c>
     </row>
     <row r="227">
-      <c r="B227" t="s" s="4">
+      <c r="B227" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C227" t="s" s="4">
+      <c r="C227" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D227" t="s" s="4">
+      <c r="D227" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E227" t="s" s="4">
+      <c r="E227" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F227" t="s" s="4">
+      <c r="F227" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G227" t="s" s="4">
+      <c r="G227" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H227" t="s" s="4">
+      <c r="H227" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I227" t="s" s="4">
+      <c r="I227" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6810,10 +6858,10 @@
       <c r="I231">
         <f>((C231-C230)^2+(D231- D230)^2)^.5</f>
       </c>
-      <c r="J231" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K231" s="4" t="s">
+      <c r="J231" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K231" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L231" t="n">
@@ -6857,28 +6905,28 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="s" s="4">
+      <c r="A233" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B233" t="s" s="4">
+      <c r="B233" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C233" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D233" t="s" s="4">
+      <c r="C233" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D233" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E233" t="s" s="4">
+      <c r="E233" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F233" t="s" s="4">
+      <c r="F233" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G233" t="s" s="4">
+      <c r="G233" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H233" t="s" s="4">
+      <c r="H233" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6903,28 +6951,28 @@
       </c>
     </row>
     <row r="235">
-      <c r="B235" t="s" s="4">
+      <c r="B235" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C235" t="s" s="4">
+      <c r="C235" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D235" t="s" s="4">
+      <c r="D235" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E235" t="s" s="4">
+      <c r="E235" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F235" t="s" s="4">
+      <c r="F235" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G235" t="s" s="4">
+      <c r="G235" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H235" t="s" s="4">
+      <c r="H235" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I235" t="s" s="4">
+      <c r="I235" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7041,10 +7089,10 @@
       <c r="I239">
         <f>((C239-C238)^2+(D239- D238)^2)^.5</f>
       </c>
-      <c r="J239" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K239" s="4" t="s">
+      <c r="J239" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K239" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L239" t="n">
@@ -7088,28 +7136,28 @@
       </c>
     </row>
     <row r="241">
-      <c r="A241" t="s" s="4">
+      <c r="A241" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B241" t="s" s="4">
+      <c r="B241" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C241" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D241" t="s" s="4">
+      <c r="C241" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D241" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E241" t="s" s="4">
+      <c r="E241" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F241" t="s" s="4">
+      <c r="F241" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G241" t="s" s="4">
+      <c r="G241" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H241" t="s" s="4">
+      <c r="H241" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7134,28 +7182,28 @@
       </c>
     </row>
     <row r="243">
-      <c r="B243" t="s" s="4">
+      <c r="B243" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C243" t="s" s="4">
+      <c r="C243" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D243" t="s" s="4">
+      <c r="D243" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E243" t="s" s="4">
+      <c r="E243" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F243" t="s" s="4">
+      <c r="F243" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G243" t="s" s="4">
+      <c r="G243" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H243" t="s" s="4">
+      <c r="H243" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I243" t="s" s="4">
+      <c r="I243" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7214,10 +7262,10 @@
       <c r="I245">
         <f>((C245-C244)^2+(D245- D244)^2)^.5</f>
       </c>
-      <c r="J245" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K245" s="4" t="s">
+      <c r="J245" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K245" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L245" t="n">
@@ -7261,28 +7309,28 @@
       </c>
     </row>
     <row r="247">
-      <c r="A247" t="s" s="4">
+      <c r="A247" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B247" t="s" s="4">
+      <c r="B247" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C247" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D247" t="s" s="4">
+      <c r="C247" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D247" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E247" t="s" s="4">
+      <c r="E247" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F247" t="s" s="4">
+      <c r="F247" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G247" t="s" s="4">
+      <c r="G247" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H247" t="s" s="4">
+      <c r="H247" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7307,28 +7355,28 @@
       </c>
     </row>
     <row r="249">
-      <c r="B249" t="s" s="4">
+      <c r="B249" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C249" t="s" s="4">
+      <c r="C249" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D249" t="s" s="4">
+      <c r="D249" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E249" t="s" s="4">
+      <c r="E249" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F249" t="s" s="4">
+      <c r="F249" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G249" t="s" s="4">
+      <c r="G249" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H249" t="s" s="4">
+      <c r="H249" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I249" t="s" s="4">
+      <c r="I249" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7445,10 +7493,10 @@
       <c r="I253">
         <f>((C253-C252)^2+(D253- D252)^2)^.5</f>
       </c>
-      <c r="J253" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K253" s="4" t="s">
+      <c r="J253" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K253" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L253" t="n">
@@ -7492,28 +7540,28 @@
       </c>
     </row>
     <row r="255">
-      <c r="A255" t="s" s="4">
+      <c r="A255" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B255" t="s" s="4">
+      <c r="B255" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C255" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D255" t="s" s="4">
+      <c r="C255" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D255" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E255" t="s" s="4">
+      <c r="E255" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F255" t="s" s="4">
+      <c r="F255" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G255" t="s" s="4">
+      <c r="G255" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H255" t="s" s="4">
+      <c r="H255" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7538,28 +7586,28 @@
       </c>
     </row>
     <row r="257">
-      <c r="B257" t="s" s="4">
+      <c r="B257" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C257" t="s" s="4">
+      <c r="C257" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D257" t="s" s="4">
+      <c r="D257" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E257" t="s" s="4">
+      <c r="E257" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F257" t="s" s="4">
+      <c r="F257" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G257" t="s" s="4">
+      <c r="G257" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H257" t="s" s="4">
+      <c r="H257" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I257" t="s" s="4">
+      <c r="I257" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7647,10 +7695,10 @@
       <c r="I260">
         <f>((C260-C259)^2+(D260- D259)^2)^.5</f>
       </c>
-      <c r="J260" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K260" s="4" t="s">
+      <c r="J260" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K260" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L260" t="n">
@@ -7694,28 +7742,28 @@
       </c>
     </row>
     <row r="262">
-      <c r="A262" t="s" s="4">
+      <c r="A262" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B262" t="s" s="4">
+      <c r="B262" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C262" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D262" t="s" s="4">
+      <c r="C262" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D262" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E262" t="s" s="4">
+      <c r="E262" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F262" t="s" s="4">
+      <c r="F262" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G262" t="s" s="4">
+      <c r="G262" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H262" t="s" s="4">
+      <c r="H262" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7740,28 +7788,28 @@
       </c>
     </row>
     <row r="264">
-      <c r="B264" t="s" s="4">
+      <c r="B264" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C264" t="s" s="4">
+      <c r="C264" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D264" t="s" s="4">
+      <c r="D264" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E264" t="s" s="4">
+      <c r="E264" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F264" t="s" s="4">
+      <c r="F264" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G264" t="s" s="4">
+      <c r="G264" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H264" t="s" s="4">
+      <c r="H264" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I264" t="s" s="4">
+      <c r="I264" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7849,10 +7897,10 @@
       <c r="I267">
         <f>((C267-C266)^2+(D267- D266)^2)^.5</f>
       </c>
-      <c r="J267" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K267" s="4" t="s">
+      <c r="J267" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K267" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L267" t="n">
@@ -7896,28 +7944,28 @@
       </c>
     </row>
     <row r="269">
-      <c r="A269" t="s" s="4">
+      <c r="A269" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B269" t="s" s="4">
+      <c r="B269" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C269" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D269" t="s" s="4">
+      <c r="C269" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D269" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E269" t="s" s="4">
+      <c r="E269" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F269" t="s" s="4">
+      <c r="F269" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G269" t="s" s="4">
+      <c r="G269" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H269" t="s" s="4">
+      <c r="H269" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7942,28 +7990,28 @@
       </c>
     </row>
     <row r="271">
-      <c r="B271" t="s" s="4">
+      <c r="B271" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C271" t="s" s="4">
+      <c r="C271" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D271" t="s" s="4">
+      <c r="D271" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E271" t="s" s="4">
+      <c r="E271" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F271" t="s" s="4">
+      <c r="F271" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G271" t="s" s="4">
+      <c r="G271" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H271" t="s" s="4">
+      <c r="H271" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I271" t="s" s="4">
+      <c r="I271" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8051,10 +8099,10 @@
       <c r="I274">
         <f>((C274-C273)^2+(D274- D273)^2)^.5</f>
       </c>
-      <c r="J274" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K274" s="4" t="s">
+      <c r="J274" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K274" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L274" t="n">
@@ -8098,28 +8146,28 @@
       </c>
     </row>
     <row r="276">
-      <c r="A276" t="s" s="4">
+      <c r="A276" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B276" t="s" s="4">
+      <c r="B276" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C276" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D276" t="s" s="4">
+      <c r="C276" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D276" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E276" t="s" s="4">
+      <c r="E276" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F276" t="s" s="4">
+      <c r="F276" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G276" t="s" s="4">
+      <c r="G276" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H276" t="s" s="4">
+      <c r="H276" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8144,28 +8192,28 @@
       </c>
     </row>
     <row r="278">
-      <c r="B278" t="s" s="4">
+      <c r="B278" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C278" t="s" s="4">
+      <c r="C278" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D278" t="s" s="4">
+      <c r="D278" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E278" t="s" s="4">
+      <c r="E278" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F278" t="s" s="4">
+      <c r="F278" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G278" t="s" s="4">
+      <c r="G278" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H278" t="s" s="4">
+      <c r="H278" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I278" t="s" s="4">
+      <c r="I278" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8224,10 +8272,10 @@
       <c r="I280">
         <f>((C280-C279)^2+(D280- D279)^2)^.5</f>
       </c>
-      <c r="J280" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K280" s="4" t="s">
+      <c r="J280" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K280" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L280" t="n">
@@ -8271,28 +8319,28 @@
       </c>
     </row>
     <row r="282">
-      <c r="A282" t="s" s="4">
+      <c r="A282" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B282" t="s" s="4">
+      <c r="B282" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C282" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D282" t="s" s="4">
+      <c r="C282" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D282" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E282" t="s" s="4">
+      <c r="E282" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F282" t="s" s="4">
+      <c r="F282" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G282" t="s" s="4">
+      <c r="G282" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H282" t="s" s="4">
+      <c r="H282" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8317,28 +8365,28 @@
       </c>
     </row>
     <row r="284">
-      <c r="B284" t="s" s="4">
+      <c r="B284" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C284" t="s" s="4">
+      <c r="C284" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D284" t="s" s="4">
+      <c r="D284" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E284" t="s" s="4">
+      <c r="E284" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F284" t="s" s="4">
+      <c r="F284" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G284" t="s" s="4">
+      <c r="G284" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H284" t="s" s="4">
+      <c r="H284" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I284" t="s" s="4">
+      <c r="I284" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8397,10 +8445,10 @@
       <c r="I286">
         <f>((C286-C285)^2+(D286- D285)^2)^.5</f>
       </c>
-      <c r="J286" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K286" s="4" t="s">
+      <c r="J286" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K286" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L286" t="n">
@@ -8444,28 +8492,28 @@
       </c>
     </row>
     <row r="288">
-      <c r="A288" t="s" s="4">
+      <c r="A288" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B288" t="s" s="4">
+      <c r="B288" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C288" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D288" t="s" s="4">
+      <c r="C288" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D288" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E288" t="s" s="4">
+      <c r="E288" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F288" t="s" s="4">
+      <c r="F288" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G288" t="s" s="4">
+      <c r="G288" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H288" t="s" s="4">
+      <c r="H288" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8490,28 +8538,28 @@
       </c>
     </row>
     <row r="290">
-      <c r="B290" t="s" s="4">
+      <c r="B290" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C290" t="s" s="4">
+      <c r="C290" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D290" t="s" s="4">
+      <c r="D290" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E290" t="s" s="4">
+      <c r="E290" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F290" t="s" s="4">
+      <c r="F290" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G290" t="s" s="4">
+      <c r="G290" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H290" t="s" s="4">
+      <c r="H290" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I290" t="s" s="4">
+      <c r="I290" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8570,10 +8618,10 @@
       <c r="I292">
         <f>((C292-C291)^2+(D292- D291)^2)^.5</f>
       </c>
-      <c r="J292" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K292" s="4" t="s">
+      <c r="J292" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K292" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L292" t="n">
@@ -8617,28 +8665,28 @@
       </c>
     </row>
     <row r="294">
-      <c r="A294" t="s" s="4">
+      <c r="A294" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B294" t="s" s="4">
+      <c r="B294" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C294" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D294" t="s" s="4">
+      <c r="C294" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D294" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E294" t="s" s="4">
+      <c r="E294" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F294" t="s" s="4">
+      <c r="F294" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G294" t="s" s="4">
+      <c r="G294" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H294" t="s" s="4">
+      <c r="H294" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8663,28 +8711,28 @@
       </c>
     </row>
     <row r="296">
-      <c r="B296" t="s" s="4">
+      <c r="B296" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C296" t="s" s="4">
+      <c r="C296" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D296" t="s" s="4">
+      <c r="D296" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E296" t="s" s="4">
+      <c r="E296" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F296" t="s" s="4">
+      <c r="F296" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G296" t="s" s="4">
+      <c r="G296" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H296" t="s" s="4">
+      <c r="H296" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I296" t="s" s="4">
+      <c r="I296" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8743,10 +8791,10 @@
       <c r="I298">
         <f>((C298-C297)^2+(D298- D297)^2)^.5</f>
       </c>
-      <c r="J298" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K298" s="4" t="s">
+      <c r="J298" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K298" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L298" t="n">
@@ -8790,28 +8838,28 @@
       </c>
     </row>
     <row r="300">
-      <c r="A300" t="s" s="4">
+      <c r="A300" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B300" t="s" s="4">
+      <c r="B300" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C300" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D300" t="s" s="4">
+      <c r="C300" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D300" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E300" t="s" s="4">
+      <c r="E300" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F300" t="s" s="4">
+      <c r="F300" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G300" t="s" s="4">
+      <c r="G300" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H300" t="s" s="4">
+      <c r="H300" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8836,28 +8884,28 @@
       </c>
     </row>
     <row r="302">
-      <c r="B302" t="s" s="4">
+      <c r="B302" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C302" t="s" s="4">
+      <c r="C302" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D302" t="s" s="4">
+      <c r="D302" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E302" t="s" s="4">
+      <c r="E302" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F302" t="s" s="4">
+      <c r="F302" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G302" t="s" s="4">
+      <c r="G302" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H302" t="s" s="4">
+      <c r="H302" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I302" t="s" s="4">
+      <c r="I302" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8916,10 +8964,10 @@
       <c r="I304">
         <f>((C304-C303)^2+(D304- D303)^2)^.5</f>
       </c>
-      <c r="J304" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K304" s="4" t="s">
+      <c r="J304" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K304" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L304" t="n">
@@ -8963,28 +9011,28 @@
       </c>
     </row>
     <row r="306">
-      <c r="A306" t="s" s="4">
+      <c r="A306" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B306" t="s" s="4">
+      <c r="B306" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C306" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D306" t="s" s="4">
+      <c r="C306" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D306" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E306" t="s" s="4">
+      <c r="E306" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F306" t="s" s="4">
+      <c r="F306" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G306" t="s" s="4">
+      <c r="G306" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H306" t="s" s="4">
+      <c r="H306" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9009,28 +9057,28 @@
       </c>
     </row>
     <row r="308">
-      <c r="B308" t="s" s="4">
+      <c r="B308" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C308" t="s" s="4">
+      <c r="C308" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D308" t="s" s="4">
+      <c r="D308" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E308" t="s" s="4">
+      <c r="E308" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F308" t="s" s="4">
+      <c r="F308" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G308" t="s" s="4">
+      <c r="G308" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H308" t="s" s="4">
+      <c r="H308" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I308" t="s" s="4">
+      <c r="I308" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9089,10 +9137,10 @@
       <c r="I310">
         <f>((C310-C309)^2+(D310- D309)^2)^.5</f>
       </c>
-      <c r="J310" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K310" s="4" t="s">
+      <c r="J310" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K310" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L310" t="n">
@@ -9136,28 +9184,28 @@
       </c>
     </row>
     <row r="312">
-      <c r="A312" t="s" s="4">
+      <c r="A312" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B312" t="s" s="4">
+      <c r="B312" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C312" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D312" t="s" s="4">
+      <c r="C312" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D312" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E312" t="s" s="4">
+      <c r="E312" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F312" t="s" s="4">
+      <c r="F312" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G312" t="s" s="4">
+      <c r="G312" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H312" t="s" s="4">
+      <c r="H312" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9182,28 +9230,28 @@
       </c>
     </row>
     <row r="314">
-      <c r="B314" t="s" s="4">
+      <c r="B314" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C314" t="s" s="4">
+      <c r="C314" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D314" t="s" s="4">
+      <c r="D314" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E314" t="s" s="4">
+      <c r="E314" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F314" t="s" s="4">
+      <c r="F314" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G314" t="s" s="4">
+      <c r="G314" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H314" t="s" s="4">
+      <c r="H314" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I314" t="s" s="4">
+      <c r="I314" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9291,10 +9339,10 @@
       <c r="I317">
         <f>((C317-C316)^2+(D317- D316)^2)^.5</f>
       </c>
-      <c r="J317" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K317" s="4" t="s">
+      <c r="J317" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K317" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L317" t="n">
@@ -9338,28 +9386,28 @@
       </c>
     </row>
     <row r="319">
-      <c r="A319" t="s" s="4">
+      <c r="A319" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B319" t="s" s="4">
+      <c r="B319" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C319" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D319" t="s" s="4">
+      <c r="C319" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D319" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E319" t="s" s="4">
+      <c r="E319" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F319" t="s" s="4">
+      <c r="F319" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G319" t="s" s="4">
+      <c r="G319" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H319" t="s" s="4">
+      <c r="H319" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9384,28 +9432,28 @@
       </c>
     </row>
     <row r="321">
-      <c r="B321" t="s" s="4">
+      <c r="B321" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C321" t="s" s="4">
+      <c r="C321" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D321" t="s" s="4">
+      <c r="D321" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E321" t="s" s="4">
+      <c r="E321" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F321" t="s" s="4">
+      <c r="F321" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G321" t="s" s="4">
+      <c r="G321" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H321" t="s" s="4">
+      <c r="H321" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I321" t="s" s="4">
+      <c r="I321" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9493,10 +9541,10 @@
       <c r="I324">
         <f>((C324-C323)^2+(D324- D323)^2)^.5</f>
       </c>
-      <c r="J324" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K324" s="4" t="s">
+      <c r="J324" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K324" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L324" t="n">
@@ -9540,28 +9588,28 @@
       </c>
     </row>
     <row r="326">
-      <c r="A326" t="s" s="4">
+      <c r="A326" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B326" t="s" s="4">
+      <c r="B326" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C326" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D326" t="s" s="4">
+      <c r="C326" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D326" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E326" t="s" s="4">
+      <c r="E326" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F326" t="s" s="4">
+      <c r="F326" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G326" t="s" s="4">
+      <c r="G326" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H326" t="s" s="4">
+      <c r="H326" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9586,28 +9634,28 @@
       </c>
     </row>
     <row r="328">
-      <c r="B328" t="s" s="4">
+      <c r="B328" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C328" t="s" s="4">
+      <c r="C328" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D328" t="s" s="4">
+      <c r="D328" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E328" t="s" s="4">
+      <c r="E328" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F328" t="s" s="4">
+      <c r="F328" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G328" t="s" s="4">
+      <c r="G328" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H328" t="s" s="4">
+      <c r="H328" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I328" t="s" s="4">
+      <c r="I328" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9666,10 +9714,10 @@
       <c r="I330">
         <f>((C330-C329)^2+(D330- D329)^2)^.5</f>
       </c>
-      <c r="J330" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K330" s="4" t="s">
+      <c r="J330" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K330" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L330" t="n">
@@ -9713,28 +9761,28 @@
       </c>
     </row>
     <row r="332">
-      <c r="A332" t="s" s="4">
+      <c r="A332" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B332" t="s" s="4">
+      <c r="B332" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C332" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D332" t="s" s="4">
+      <c r="C332" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D332" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E332" t="s" s="4">
+      <c r="E332" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F332" t="s" s="4">
+      <c r="F332" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G332" t="s" s="4">
+      <c r="G332" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H332" t="s" s="4">
+      <c r="H332" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9759,28 +9807,28 @@
       </c>
     </row>
     <row r="334">
-      <c r="B334" t="s" s="4">
+      <c r="B334" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C334" t="s" s="4">
+      <c r="C334" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D334" t="s" s="4">
+      <c r="D334" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E334" t="s" s="4">
+      <c r="E334" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F334" t="s" s="4">
+      <c r="F334" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G334" t="s" s="4">
+      <c r="G334" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H334" t="s" s="4">
+      <c r="H334" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I334" t="s" s="4">
+      <c r="I334" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9839,10 +9887,10 @@
       <c r="I336">
         <f>((C336-C335)^2+(D336- D335)^2)^.5</f>
       </c>
-      <c r="J336" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K336" s="4" t="s">
+      <c r="J336" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K336" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L336" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c103_I1_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c103_I1_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10344" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12930" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,28 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="13">
+  <fonts count="16">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -183,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -197,6 +212,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -219,26 +237,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="true">
-      <c r="A1" t="s" s="12">
+    <row r="1" s="15" customFormat="true">
+      <c r="A1" t="s" s="15">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="12">
+      <c r="B1" t="s" s="15">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="12">
+      <c r="C1" t="s" s="15">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="12">
+      <c r="D1" t="s" s="15">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="12">
+      <c r="E1" t="s" s="15">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="12">
+      <c r="F1" t="s" s="15">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="12">
+      <c r="G1" t="s" s="15">
         <v>7</v>
       </c>
     </row>
@@ -266,28 +284,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="12">
+      <c r="A3" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="12">
+      <c r="B3" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="12">
+      <c r="C3" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="12">
+      <c r="E3" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="12">
+      <c r="F3" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="12">
+      <c r="G3" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="12">
+      <c r="H3" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -312,28 +330,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="12">
+      <c r="B5" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="12">
+      <c r="C5" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="12">
+      <c r="D5" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="12">
+      <c r="E5" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="12">
+      <c r="F5" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="12">
+      <c r="G5" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="12">
+      <c r="H5" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="12">
+      <c r="I5" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -479,10 +497,10 @@
       <c r="I10">
         <f>((C10-C9)^2+(D10- D9)^2)^.5</f>
       </c>
-      <c r="J10" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="12" t="s">
+      <c r="J10" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L10" t="n">
@@ -526,28 +544,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="12">
+      <c r="A12" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B12" t="s" s="12">
+      <c r="B12" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C12" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s" s="12">
+      <c r="C12" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E12" t="s" s="12">
+      <c r="E12" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F12" t="s" s="12">
+      <c r="F12" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G12" t="s" s="12">
+      <c r="G12" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H12" t="s" s="12">
+      <c r="H12" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -572,28 +590,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="B14" t="s" s="12">
+      <c r="B14" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C14" t="s" s="12">
+      <c r="C14" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D14" t="s" s="12">
+      <c r="D14" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E14" t="s" s="12">
+      <c r="E14" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F14" t="s" s="12">
+      <c r="F14" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G14" t="s" s="12">
+      <c r="G14" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H14" t="s" s="12">
+      <c r="H14" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I14" t="s" s="12">
+      <c r="I14" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -710,10 +728,10 @@
       <c r="I18">
         <f>((C18-C17)^2+(D18- D17)^2)^.5</f>
       </c>
-      <c r="J18" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K18" s="12" t="s">
+      <c r="J18" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L18" t="n">
@@ -757,28 +775,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="12">
+      <c r="A20" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B20" t="s" s="12">
+      <c r="B20" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C20" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D20" t="s" s="12">
+      <c r="C20" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E20" t="s" s="12">
+      <c r="E20" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F20" t="s" s="12">
+      <c r="F20" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G20" t="s" s="12">
+      <c r="G20" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H20" t="s" s="12">
+      <c r="H20" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -803,28 +821,28 @@
       </c>
     </row>
     <row r="22">
-      <c r="B22" t="s" s="12">
+      <c r="B22" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C22" t="s" s="12">
+      <c r="C22" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D22" t="s" s="12">
+      <c r="D22" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E22" t="s" s="12">
+      <c r="E22" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F22" t="s" s="12">
+      <c r="F22" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G22" t="s" s="12">
+      <c r="G22" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H22" t="s" s="12">
+      <c r="H22" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I22" t="s" s="12">
+      <c r="I22" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -883,10 +901,10 @@
       <c r="I24">
         <f>((C24-C23)^2+(D24- D23)^2)^.5</f>
       </c>
-      <c r="J24" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="12" t="s">
+      <c r="J24" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L24" t="n">
@@ -930,28 +948,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s" s="12">
+      <c r="A26" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B26" t="s" s="12">
+      <c r="B26" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C26" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D26" t="s" s="12">
+      <c r="C26" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E26" t="s" s="12">
+      <c r="E26" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F26" t="s" s="12">
+      <c r="F26" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G26" t="s" s="12">
+      <c r="G26" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H26" t="s" s="12">
+      <c r="H26" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -976,28 +994,28 @@
       </c>
     </row>
     <row r="28">
-      <c r="B28" t="s" s="12">
+      <c r="B28" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C28" t="s" s="12">
+      <c r="C28" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D28" t="s" s="12">
+      <c r="D28" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E28" t="s" s="12">
+      <c r="E28" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F28" t="s" s="12">
+      <c r="F28" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G28" t="s" s="12">
+      <c r="G28" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H28" t="s" s="12">
+      <c r="H28" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I28" t="s" s="12">
+      <c r="I28" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1085,10 +1103,10 @@
       <c r="I31">
         <f>((C31-C30)^2+(D31- D30)^2)^.5</f>
       </c>
-      <c r="J31" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K31" s="12" t="s">
+      <c r="J31" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K31" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L31" t="n">
@@ -1132,28 +1150,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s" s="12">
+      <c r="A33" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B33" t="s" s="12">
+      <c r="B33" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C33" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D33" t="s" s="12">
+      <c r="C33" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D33" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E33" t="s" s="12">
+      <c r="E33" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F33" t="s" s="12">
+      <c r="F33" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G33" t="s" s="12">
+      <c r="G33" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H33" t="s" s="12">
+      <c r="H33" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1178,28 +1196,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="B35" t="s" s="12">
+      <c r="B35" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C35" t="s" s="12">
+      <c r="C35" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D35" t="s" s="12">
+      <c r="D35" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E35" t="s" s="12">
+      <c r="E35" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F35" t="s" s="12">
+      <c r="F35" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G35" t="s" s="12">
+      <c r="G35" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H35" t="s" s="12">
+      <c r="H35" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I35" t="s" s="12">
+      <c r="I35" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1287,10 +1305,10 @@
       <c r="I38">
         <f>((C38-C37)^2+(D38- D37)^2)^.5</f>
       </c>
-      <c r="J38" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K38" s="12" t="s">
+      <c r="J38" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K38" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L38" t="n">
@@ -1334,28 +1352,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s" s="12">
+      <c r="A40" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B40" t="s" s="12">
+      <c r="B40" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C40" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D40" t="s" s="12">
+      <c r="C40" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E40" t="s" s="12">
+      <c r="E40" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F40" t="s" s="12">
+      <c r="F40" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G40" t="s" s="12">
+      <c r="G40" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H40" t="s" s="12">
+      <c r="H40" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1380,28 +1398,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="B42" t="s" s="12">
+      <c r="B42" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C42" t="s" s="12">
+      <c r="C42" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D42" t="s" s="12">
+      <c r="D42" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E42" t="s" s="12">
+      <c r="E42" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F42" t="s" s="12">
+      <c r="F42" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G42" t="s" s="12">
+      <c r="G42" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H42" t="s" s="12">
+      <c r="H42" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I42" t="s" s="12">
+      <c r="I42" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1518,10 +1536,10 @@
       <c r="I46">
         <f>((C46-C45)^2+(D46- D45)^2)^.5</f>
       </c>
-      <c r="J46" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K46" s="12" t="s">
+      <c r="J46" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K46" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L46" t="n">
@@ -1565,28 +1583,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s" s="12">
+      <c r="A48" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B48" t="s" s="12">
+      <c r="B48" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C48" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D48" t="s" s="12">
+      <c r="C48" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D48" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E48" t="s" s="12">
+      <c r="E48" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F48" t="s" s="12">
+      <c r="F48" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G48" t="s" s="12">
+      <c r="G48" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H48" t="s" s="12">
+      <c r="H48" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1611,28 +1629,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="B50" t="s" s="12">
+      <c r="B50" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C50" t="s" s="12">
+      <c r="C50" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D50" t="s" s="12">
+      <c r="D50" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E50" t="s" s="12">
+      <c r="E50" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F50" t="s" s="12">
+      <c r="F50" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G50" t="s" s="12">
+      <c r="G50" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H50" t="s" s="12">
+      <c r="H50" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I50" t="s" s="12">
+      <c r="I50" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1720,10 +1738,10 @@
       <c r="I53">
         <f>((C53-C52)^2+(D53- D52)^2)^.5</f>
       </c>
-      <c r="J53" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K53" s="12" t="s">
+      <c r="J53" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K53" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L53" t="n">
@@ -1767,28 +1785,28 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="s" s="12">
+      <c r="A55" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B55" t="s" s="12">
+      <c r="B55" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C55" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D55" t="s" s="12">
+      <c r="C55" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D55" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E55" t="s" s="12">
+      <c r="E55" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F55" t="s" s="12">
+      <c r="F55" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G55" t="s" s="12">
+      <c r="G55" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H55" t="s" s="12">
+      <c r="H55" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1813,28 +1831,28 @@
       </c>
     </row>
     <row r="57">
-      <c r="B57" t="s" s="12">
+      <c r="B57" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C57" t="s" s="12">
+      <c r="C57" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D57" t="s" s="12">
+      <c r="D57" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E57" t="s" s="12">
+      <c r="E57" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F57" t="s" s="12">
+      <c r="F57" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G57" t="s" s="12">
+      <c r="G57" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H57" t="s" s="12">
+      <c r="H57" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I57" t="s" s="12">
+      <c r="I57" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1951,10 +1969,10 @@
       <c r="I61">
         <f>((C61-C60)^2+(D61- D60)^2)^.5</f>
       </c>
-      <c r="J61" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K61" s="12" t="s">
+      <c r="J61" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K61" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L61" t="n">
@@ -1998,28 +2016,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="s" s="12">
+      <c r="A63" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B63" t="s" s="12">
+      <c r="B63" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C63" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D63" t="s" s="12">
+      <c r="C63" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D63" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E63" t="s" s="12">
+      <c r="E63" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F63" t="s" s="12">
+      <c r="F63" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G63" t="s" s="12">
+      <c r="G63" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H63" t="s" s="12">
+      <c r="H63" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2044,28 +2062,28 @@
       </c>
     </row>
     <row r="65">
-      <c r="B65" t="s" s="12">
+      <c r="B65" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C65" t="s" s="12">
+      <c r="C65" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D65" t="s" s="12">
+      <c r="D65" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E65" t="s" s="12">
+      <c r="E65" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F65" t="s" s="12">
+      <c r="F65" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G65" t="s" s="12">
+      <c r="G65" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H65" t="s" s="12">
+      <c r="H65" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I65" t="s" s="12">
+      <c r="I65" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2211,10 +2229,10 @@
       <c r="I70">
         <f>((C70-C69)^2+(D70- D69)^2)^.5</f>
       </c>
-      <c r="J70" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K70" s="12" t="s">
+      <c r="J70" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K70" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L70" t="n">
@@ -2258,28 +2276,28 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="s" s="12">
+      <c r="A72" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B72" t="s" s="12">
+      <c r="B72" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C72" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D72" t="s" s="12">
+      <c r="C72" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D72" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E72" t="s" s="12">
+      <c r="E72" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F72" t="s" s="12">
+      <c r="F72" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G72" t="s" s="12">
+      <c r="G72" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H72" t="s" s="12">
+      <c r="H72" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2304,28 +2322,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="B74" t="s" s="12">
+      <c r="B74" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C74" t="s" s="12">
+      <c r="C74" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D74" t="s" s="12">
+      <c r="D74" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E74" t="s" s="12">
+      <c r="E74" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F74" t="s" s="12">
+      <c r="F74" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G74" t="s" s="12">
+      <c r="G74" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H74" t="s" s="12">
+      <c r="H74" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I74" t="s" s="12">
+      <c r="I74" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2471,10 +2489,10 @@
       <c r="I79">
         <f>((C79-C78)^2+(D79- D78)^2)^.5</f>
       </c>
-      <c r="J79" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K79" s="12" t="s">
+      <c r="J79" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K79" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L79" t="n">
@@ -2518,28 +2536,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="s" s="12">
+      <c r="A81" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B81" t="s" s="12">
+      <c r="B81" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C81" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D81" t="s" s="12">
+      <c r="C81" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D81" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E81" t="s" s="12">
+      <c r="E81" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F81" t="s" s="12">
+      <c r="F81" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G81" t="s" s="12">
+      <c r="G81" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H81" t="s" s="12">
+      <c r="H81" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2564,28 +2582,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="B83" t="s" s="12">
+      <c r="B83" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C83" t="s" s="12">
+      <c r="C83" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D83" t="s" s="12">
+      <c r="D83" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E83" t="s" s="12">
+      <c r="E83" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F83" t="s" s="12">
+      <c r="F83" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G83" t="s" s="12">
+      <c r="G83" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H83" t="s" s="12">
+      <c r="H83" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I83" t="s" s="12">
+      <c r="I83" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2731,10 +2749,10 @@
       <c r="I88">
         <f>((C88-C87)^2+(D88- D87)^2)^.5</f>
       </c>
-      <c r="J88" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K88" s="12" t="s">
+      <c r="J88" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K88" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L88" t="n">
@@ -2778,28 +2796,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="s" s="12">
+      <c r="A90" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B90" t="s" s="12">
+      <c r="B90" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C90" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D90" t="s" s="12">
+      <c r="C90" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D90" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E90" t="s" s="12">
+      <c r="E90" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F90" t="s" s="12">
+      <c r="F90" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G90" t="s" s="12">
+      <c r="G90" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H90" t="s" s="12">
+      <c r="H90" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2824,28 +2842,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="B92" t="s" s="12">
+      <c r="B92" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C92" t="s" s="12">
+      <c r="C92" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D92" t="s" s="12">
+      <c r="D92" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E92" t="s" s="12">
+      <c r="E92" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F92" t="s" s="12">
+      <c r="F92" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G92" t="s" s="12">
+      <c r="G92" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H92" t="s" s="12">
+      <c r="H92" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I92" t="s" s="12">
+      <c r="I92" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2933,10 +2951,10 @@
       <c r="I95">
         <f>((C95-C94)^2+(D95- D94)^2)^.5</f>
       </c>
-      <c r="J95" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K95" s="12" t="s">
+      <c r="J95" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K95" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L95" t="n">
@@ -2980,28 +2998,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="s" s="12">
+      <c r="A97" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B97" t="s" s="12">
+      <c r="B97" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C97" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D97" t="s" s="12">
+      <c r="C97" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D97" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E97" t="s" s="12">
+      <c r="E97" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F97" t="s" s="12">
+      <c r="F97" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G97" t="s" s="12">
+      <c r="G97" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H97" t="s" s="12">
+      <c r="H97" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3026,28 +3044,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="B99" t="s" s="12">
+      <c r="B99" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C99" t="s" s="12">
+      <c r="C99" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D99" t="s" s="12">
+      <c r="D99" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E99" t="s" s="12">
+      <c r="E99" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F99" t="s" s="12">
+      <c r="F99" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G99" t="s" s="12">
+      <c r="G99" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H99" t="s" s="12">
+      <c r="H99" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I99" t="s" s="12">
+      <c r="I99" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3251,10 +3269,10 @@
       <c r="I106">
         <f>((C106-C105)^2+(D106- D105)^2)^.5</f>
       </c>
-      <c r="J106" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K106" s="12" t="s">
+      <c r="J106" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K106" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L106" t="n">
@@ -3298,28 +3316,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="s" s="12">
+      <c r="A108" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B108" t="s" s="12">
+      <c r="B108" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C108" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D108" t="s" s="12">
+      <c r="C108" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D108" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E108" t="s" s="12">
+      <c r="E108" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F108" t="s" s="12">
+      <c r="F108" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G108" t="s" s="12">
+      <c r="G108" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H108" t="s" s="12">
+      <c r="H108" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3344,28 +3362,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="B110" t="s" s="12">
+      <c r="B110" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C110" t="s" s="12">
+      <c r="C110" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D110" t="s" s="12">
+      <c r="D110" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E110" t="s" s="12">
+      <c r="E110" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F110" t="s" s="12">
+      <c r="F110" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G110" t="s" s="12">
+      <c r="G110" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H110" t="s" s="12">
+      <c r="H110" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I110" t="s" s="12">
+      <c r="I110" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3482,10 +3500,10 @@
       <c r="I114">
         <f>((C114-C113)^2+(D114- D113)^2)^.5</f>
       </c>
-      <c r="J114" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K114" s="12" t="s">
+      <c r="J114" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K114" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L114" t="n">
@@ -3529,28 +3547,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="s" s="12">
+      <c r="A116" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B116" t="s" s="12">
+      <c r="B116" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C116" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D116" t="s" s="12">
+      <c r="C116" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D116" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E116" t="s" s="12">
+      <c r="E116" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F116" t="s" s="12">
+      <c r="F116" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G116" t="s" s="12">
+      <c r="G116" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H116" t="s" s="12">
+      <c r="H116" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3575,28 +3593,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="B118" t="s" s="12">
+      <c r="B118" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C118" t="s" s="12">
+      <c r="C118" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D118" t="s" s="12">
+      <c r="D118" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E118" t="s" s="12">
+      <c r="E118" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F118" t="s" s="12">
+      <c r="F118" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G118" t="s" s="12">
+      <c r="G118" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H118" t="s" s="12">
+      <c r="H118" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I118" t="s" s="12">
+      <c r="I118" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3713,10 +3731,10 @@
       <c r="I122">
         <f>((C122-C121)^2+(D122- D121)^2)^.5</f>
       </c>
-      <c r="J122" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K122" s="12" t="s">
+      <c r="J122" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K122" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L122" t="n">
@@ -3760,28 +3778,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="s" s="12">
+      <c r="A124" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B124" t="s" s="12">
+      <c r="B124" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C124" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D124" t="s" s="12">
+      <c r="C124" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D124" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E124" t="s" s="12">
+      <c r="E124" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F124" t="s" s="12">
+      <c r="F124" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G124" t="s" s="12">
+      <c r="G124" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H124" t="s" s="12">
+      <c r="H124" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3806,28 +3824,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="B126" t="s" s="12">
+      <c r="B126" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C126" t="s" s="12">
+      <c r="C126" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D126" t="s" s="12">
+      <c r="D126" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E126" t="s" s="12">
+      <c r="E126" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F126" t="s" s="12">
+      <c r="F126" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G126" t="s" s="12">
+      <c r="G126" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H126" t="s" s="12">
+      <c r="H126" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I126" t="s" s="12">
+      <c r="I126" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3915,10 +3933,10 @@
       <c r="I129">
         <f>((C129-C128)^2+(D129- D128)^2)^.5</f>
       </c>
-      <c r="J129" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K129" s="12" t="s">
+      <c r="J129" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K129" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L129" t="n">
@@ -3962,28 +3980,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="s" s="12">
+      <c r="A131" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B131" t="s" s="12">
+      <c r="B131" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C131" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D131" t="s" s="12">
+      <c r="C131" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D131" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E131" t="s" s="12">
+      <c r="E131" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F131" t="s" s="12">
+      <c r="F131" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G131" t="s" s="12">
+      <c r="G131" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H131" t="s" s="12">
+      <c r="H131" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4008,28 +4026,28 @@
       </c>
     </row>
     <row r="133">
-      <c r="B133" t="s" s="12">
+      <c r="B133" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C133" t="s" s="12">
+      <c r="C133" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D133" t="s" s="12">
+      <c r="D133" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E133" t="s" s="12">
+      <c r="E133" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F133" t="s" s="12">
+      <c r="F133" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G133" t="s" s="12">
+      <c r="G133" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H133" t="s" s="12">
+      <c r="H133" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I133" t="s" s="12">
+      <c r="I133" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4146,10 +4164,10 @@
       <c r="I137">
         <f>((C137-C136)^2+(D137- D136)^2)^.5</f>
       </c>
-      <c r="J137" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K137" s="12" t="s">
+      <c r="J137" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K137" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L137" t="n">
@@ -4193,28 +4211,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="s" s="12">
+      <c r="A139" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B139" t="s" s="12">
+      <c r="B139" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C139" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D139" t="s" s="12">
+      <c r="C139" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D139" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E139" t="s" s="12">
+      <c r="E139" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F139" t="s" s="12">
+      <c r="F139" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G139" t="s" s="12">
+      <c r="G139" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H139" t="s" s="12">
+      <c r="H139" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4239,28 +4257,28 @@
       </c>
     </row>
     <row r="141">
-      <c r="B141" t="s" s="12">
+      <c r="B141" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C141" t="s" s="12">
+      <c r="C141" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D141" t="s" s="12">
+      <c r="D141" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E141" t="s" s="12">
+      <c r="E141" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F141" t="s" s="12">
+      <c r="F141" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G141" t="s" s="12">
+      <c r="G141" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H141" t="s" s="12">
+      <c r="H141" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I141" t="s" s="12">
+      <c r="I141" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4348,10 +4366,10 @@
       <c r="I144">
         <f>((C144-C143)^2+(D144- D143)^2)^.5</f>
       </c>
-      <c r="J144" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K144" s="12" t="s">
+      <c r="J144" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K144" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L144" t="n">
@@ -4395,28 +4413,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="s" s="12">
+      <c r="A146" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B146" t="s" s="12">
+      <c r="B146" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C146" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D146" t="s" s="12">
+      <c r="C146" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D146" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E146" t="s" s="12">
+      <c r="E146" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F146" t="s" s="12">
+      <c r="F146" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G146" t="s" s="12">
+      <c r="G146" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H146" t="s" s="12">
+      <c r="H146" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4441,28 +4459,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="B148" t="s" s="12">
+      <c r="B148" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C148" t="s" s="12">
+      <c r="C148" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D148" t="s" s="12">
+      <c r="D148" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E148" t="s" s="12">
+      <c r="E148" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F148" t="s" s="12">
+      <c r="F148" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G148" t="s" s="12">
+      <c r="G148" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H148" t="s" s="12">
+      <c r="H148" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I148" t="s" s="12">
+      <c r="I148" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4579,10 +4597,10 @@
       <c r="I152">
         <f>((C152-C151)^2+(D152- D151)^2)^.5</f>
       </c>
-      <c r="J152" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K152" s="12" t="s">
+      <c r="J152" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K152" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L152" t="n">
@@ -4626,28 +4644,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="s" s="12">
+      <c r="A154" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B154" t="s" s="12">
+      <c r="B154" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C154" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D154" t="s" s="12">
+      <c r="C154" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D154" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E154" t="s" s="12">
+      <c r="E154" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F154" t="s" s="12">
+      <c r="F154" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G154" t="s" s="12">
+      <c r="G154" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H154" t="s" s="12">
+      <c r="H154" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4672,28 +4690,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="B156" t="s" s="12">
+      <c r="B156" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C156" t="s" s="12">
+      <c r="C156" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D156" t="s" s="12">
+      <c r="D156" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E156" t="s" s="12">
+      <c r="E156" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F156" t="s" s="12">
+      <c r="F156" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G156" t="s" s="12">
+      <c r="G156" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H156" t="s" s="12">
+      <c r="H156" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I156" t="s" s="12">
+      <c r="I156" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4781,10 +4799,10 @@
       <c r="I159">
         <f>((C159-C158)^2+(D159- D158)^2)^.5</f>
       </c>
-      <c r="J159" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K159" s="12" t="s">
+      <c r="J159" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K159" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L159" t="n">
@@ -4828,28 +4846,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="s" s="12">
+      <c r="A161" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B161" t="s" s="12">
+      <c r="B161" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C161" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D161" t="s" s="12">
+      <c r="C161" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D161" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E161" t="s" s="12">
+      <c r="E161" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F161" t="s" s="12">
+      <c r="F161" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G161" t="s" s="12">
+      <c r="G161" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H161" t="s" s="12">
+      <c r="H161" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4874,28 +4892,28 @@
       </c>
     </row>
     <row r="163">
-      <c r="B163" t="s" s="12">
+      <c r="B163" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C163" t="s" s="12">
+      <c r="C163" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D163" t="s" s="12">
+      <c r="D163" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E163" t="s" s="12">
+      <c r="E163" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F163" t="s" s="12">
+      <c r="F163" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G163" t="s" s="12">
+      <c r="G163" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H163" t="s" s="12">
+      <c r="H163" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I163" t="s" s="12">
+      <c r="I163" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4983,10 +5001,10 @@
       <c r="I166">
         <f>((C166-C165)^2+(D166- D165)^2)^.5</f>
       </c>
-      <c r="J166" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K166" s="12" t="s">
+      <c r="J166" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K166" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L166" t="n">
@@ -5030,28 +5048,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="s" s="12">
+      <c r="A168" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B168" t="s" s="12">
+      <c r="B168" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C168" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D168" t="s" s="12">
+      <c r="C168" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D168" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E168" t="s" s="12">
+      <c r="E168" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F168" t="s" s="12">
+      <c r="F168" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G168" t="s" s="12">
+      <c r="G168" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H168" t="s" s="12">
+      <c r="H168" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5076,28 +5094,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="B170" t="s" s="12">
+      <c r="B170" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C170" t="s" s="12">
+      <c r="C170" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D170" t="s" s="12">
+      <c r="D170" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E170" t="s" s="12">
+      <c r="E170" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F170" t="s" s="12">
+      <c r="F170" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G170" t="s" s="12">
+      <c r="G170" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H170" t="s" s="12">
+      <c r="H170" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I170" t="s" s="12">
+      <c r="I170" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5185,10 +5203,10 @@
       <c r="I173">
         <f>((C173-C172)^2+(D173- D172)^2)^.5</f>
       </c>
-      <c r="J173" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K173" s="12" t="s">
+      <c r="J173" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K173" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L173" t="n">
@@ -5232,28 +5250,28 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="s" s="12">
+      <c r="A175" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B175" t="s" s="12">
+      <c r="B175" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C175" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D175" t="s" s="12">
+      <c r="C175" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D175" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E175" t="s" s="12">
+      <c r="E175" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F175" t="s" s="12">
+      <c r="F175" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G175" t="s" s="12">
+      <c r="G175" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H175" t="s" s="12">
+      <c r="H175" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5278,28 +5296,28 @@
       </c>
     </row>
     <row r="177">
-      <c r="B177" t="s" s="12">
+      <c r="B177" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C177" t="s" s="12">
+      <c r="C177" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D177" t="s" s="12">
+      <c r="D177" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E177" t="s" s="12">
+      <c r="E177" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F177" t="s" s="12">
+      <c r="F177" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G177" t="s" s="12">
+      <c r="G177" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H177" t="s" s="12">
+      <c r="H177" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I177" t="s" s="12">
+      <c r="I177" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5358,10 +5376,10 @@
       <c r="I179">
         <f>((C179-C178)^2+(D179- D178)^2)^.5</f>
       </c>
-      <c r="J179" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K179" s="12" t="s">
+      <c r="J179" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K179" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L179" t="n">
@@ -5405,28 +5423,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="s" s="12">
+      <c r="A181" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B181" t="s" s="12">
+      <c r="B181" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C181" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D181" t="s" s="12">
+      <c r="C181" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D181" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E181" t="s" s="12">
+      <c r="E181" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F181" t="s" s="12">
+      <c r="F181" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G181" t="s" s="12">
+      <c r="G181" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H181" t="s" s="12">
+      <c r="H181" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5451,28 +5469,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="B183" t="s" s="12">
+      <c r="B183" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C183" t="s" s="12">
+      <c r="C183" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D183" t="s" s="12">
+      <c r="D183" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E183" t="s" s="12">
+      <c r="E183" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F183" t="s" s="12">
+      <c r="F183" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G183" t="s" s="12">
+      <c r="G183" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H183" t="s" s="12">
+      <c r="H183" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I183" t="s" s="12">
+      <c r="I183" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5531,10 +5549,10 @@
       <c r="I185">
         <f>((C185-C184)^2+(D185- D184)^2)^.5</f>
       </c>
-      <c r="J185" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K185" s="12" t="s">
+      <c r="J185" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K185" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L185" t="n">
@@ -5578,28 +5596,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="s" s="12">
+      <c r="A187" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B187" t="s" s="12">
+      <c r="B187" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C187" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D187" t="s" s="12">
+      <c r="C187" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D187" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E187" t="s" s="12">
+      <c r="E187" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F187" t="s" s="12">
+      <c r="F187" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G187" t="s" s="12">
+      <c r="G187" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H187" t="s" s="12">
+      <c r="H187" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5624,28 +5642,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="B189" t="s" s="12">
+      <c r="B189" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C189" t="s" s="12">
+      <c r="C189" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D189" t="s" s="12">
+      <c r="D189" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E189" t="s" s="12">
+      <c r="E189" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F189" t="s" s="12">
+      <c r="F189" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G189" t="s" s="12">
+      <c r="G189" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H189" t="s" s="12">
+      <c r="H189" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I189" t="s" s="12">
+      <c r="I189" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5733,10 +5751,10 @@
       <c r="I192">
         <f>((C192-C191)^2+(D192- D191)^2)^.5</f>
       </c>
-      <c r="J192" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K192" s="12" t="s">
+      <c r="J192" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K192" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L192" t="n">
@@ -5780,28 +5798,28 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="s" s="12">
+      <c r="A194" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B194" t="s" s="12">
+      <c r="B194" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C194" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D194" t="s" s="12">
+      <c r="C194" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D194" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E194" t="s" s="12">
+      <c r="E194" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F194" t="s" s="12">
+      <c r="F194" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G194" t="s" s="12">
+      <c r="G194" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H194" t="s" s="12">
+      <c r="H194" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5826,28 +5844,28 @@
       </c>
     </row>
     <row r="196">
-      <c r="B196" t="s" s="12">
+      <c r="B196" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C196" t="s" s="12">
+      <c r="C196" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D196" t="s" s="12">
+      <c r="D196" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E196" t="s" s="12">
+      <c r="E196" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F196" t="s" s="12">
+      <c r="F196" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G196" t="s" s="12">
+      <c r="G196" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H196" t="s" s="12">
+      <c r="H196" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I196" t="s" s="12">
+      <c r="I196" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5906,10 +5924,10 @@
       <c r="I198">
         <f>((C198-C197)^2+(D198- D197)^2)^.5</f>
       </c>
-      <c r="J198" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K198" s="12" t="s">
+      <c r="J198" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K198" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L198" t="n">
@@ -5953,28 +5971,28 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="s" s="12">
+      <c r="A200" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B200" t="s" s="12">
+      <c r="B200" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C200" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D200" t="s" s="12">
+      <c r="C200" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D200" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E200" t="s" s="12">
+      <c r="E200" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F200" t="s" s="12">
+      <c r="F200" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G200" t="s" s="12">
+      <c r="G200" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H200" t="s" s="12">
+      <c r="H200" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5999,28 +6017,28 @@
       </c>
     </row>
     <row r="202">
-      <c r="B202" t="s" s="12">
+      <c r="B202" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C202" t="s" s="12">
+      <c r="C202" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D202" t="s" s="12">
+      <c r="D202" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E202" t="s" s="12">
+      <c r="E202" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F202" t="s" s="12">
+      <c r="F202" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G202" t="s" s="12">
+      <c r="G202" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H202" t="s" s="12">
+      <c r="H202" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I202" t="s" s="12">
+      <c r="I202" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6079,10 +6097,10 @@
       <c r="I204">
         <f>((C204-C203)^2+(D204- D203)^2)^.5</f>
       </c>
-      <c r="J204" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K204" s="12" t="s">
+      <c r="J204" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K204" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L204" t="n">
@@ -6126,28 +6144,28 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="s" s="12">
+      <c r="A206" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B206" t="s" s="12">
+      <c r="B206" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C206" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D206" t="s" s="12">
+      <c r="C206" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D206" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E206" t="s" s="12">
+      <c r="E206" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F206" t="s" s="12">
+      <c r="F206" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G206" t="s" s="12">
+      <c r="G206" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H206" t="s" s="12">
+      <c r="H206" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6172,28 +6190,28 @@
       </c>
     </row>
     <row r="208">
-      <c r="B208" t="s" s="12">
+      <c r="B208" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C208" t="s" s="12">
+      <c r="C208" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D208" t="s" s="12">
+      <c r="D208" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E208" t="s" s="12">
+      <c r="E208" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F208" t="s" s="12">
+      <c r="F208" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G208" t="s" s="12">
+      <c r="G208" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H208" t="s" s="12">
+      <c r="H208" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I208" t="s" s="12">
+      <c r="I208" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6252,10 +6270,10 @@
       <c r="I210">
         <f>((C210-C209)^2+(D210- D209)^2)^.5</f>
       </c>
-      <c r="J210" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K210" s="12" t="s">
+      <c r="J210" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K210" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L210" t="n">
@@ -6299,28 +6317,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="s" s="12">
+      <c r="A212" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B212" t="s" s="12">
+      <c r="B212" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C212" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D212" t="s" s="12">
+      <c r="C212" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D212" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E212" t="s" s="12">
+      <c r="E212" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F212" t="s" s="12">
+      <c r="F212" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G212" t="s" s="12">
+      <c r="G212" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H212" t="s" s="12">
+      <c r="H212" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6345,28 +6363,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="B214" t="s" s="12">
+      <c r="B214" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C214" t="s" s="12">
+      <c r="C214" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D214" t="s" s="12">
+      <c r="D214" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E214" t="s" s="12">
+      <c r="E214" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F214" t="s" s="12">
+      <c r="F214" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G214" t="s" s="12">
+      <c r="G214" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H214" t="s" s="12">
+      <c r="H214" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I214" t="s" s="12">
+      <c r="I214" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6425,10 +6443,10 @@
       <c r="I216">
         <f>((C216-C215)^2+(D216- D215)^2)^.5</f>
       </c>
-      <c r="J216" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K216" s="12" t="s">
+      <c r="J216" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K216" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L216" t="n">
@@ -6472,28 +6490,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="s" s="12">
+      <c r="A218" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B218" t="s" s="12">
+      <c r="B218" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C218" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D218" t="s" s="12">
+      <c r="C218" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D218" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E218" t="s" s="12">
+      <c r="E218" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F218" t="s" s="12">
+      <c r="F218" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G218" t="s" s="12">
+      <c r="G218" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H218" t="s" s="12">
+      <c r="H218" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6518,28 +6536,28 @@
       </c>
     </row>
     <row r="220">
-      <c r="B220" t="s" s="12">
+      <c r="B220" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C220" t="s" s="12">
+      <c r="C220" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D220" t="s" s="12">
+      <c r="D220" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E220" t="s" s="12">
+      <c r="E220" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F220" t="s" s="12">
+      <c r="F220" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G220" t="s" s="12">
+      <c r="G220" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H220" t="s" s="12">
+      <c r="H220" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I220" t="s" s="12">
+      <c r="I220" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6627,10 +6645,10 @@
       <c r="I223">
         <f>((C223-C222)^2+(D223- D222)^2)^.5</f>
       </c>
-      <c r="J223" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K223" s="12" t="s">
+      <c r="J223" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K223" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L223" t="n">
@@ -6674,28 +6692,28 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="s" s="12">
+      <c r="A225" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B225" t="s" s="12">
+      <c r="B225" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C225" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D225" t="s" s="12">
+      <c r="C225" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D225" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E225" t="s" s="12">
+      <c r="E225" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F225" t="s" s="12">
+      <c r="F225" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G225" t="s" s="12">
+      <c r="G225" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H225" t="s" s="12">
+      <c r="H225" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6720,28 +6738,28 @@
       </c>
     </row>
     <row r="227">
-      <c r="B227" t="s" s="12">
+      <c r="B227" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C227" t="s" s="12">
+      <c r="C227" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D227" t="s" s="12">
+      <c r="D227" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E227" t="s" s="12">
+      <c r="E227" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F227" t="s" s="12">
+      <c r="F227" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G227" t="s" s="12">
+      <c r="G227" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H227" t="s" s="12">
+      <c r="H227" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I227" t="s" s="12">
+      <c r="I227" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6858,10 +6876,10 @@
       <c r="I231">
         <f>((C231-C230)^2+(D231- D230)^2)^.5</f>
       </c>
-      <c r="J231" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K231" s="12" t="s">
+      <c r="J231" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K231" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L231" t="n">
@@ -6905,28 +6923,28 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="s" s="12">
+      <c r="A233" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B233" t="s" s="12">
+      <c r="B233" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C233" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D233" t="s" s="12">
+      <c r="C233" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D233" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E233" t="s" s="12">
+      <c r="E233" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F233" t="s" s="12">
+      <c r="F233" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G233" t="s" s="12">
+      <c r="G233" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H233" t="s" s="12">
+      <c r="H233" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6951,28 +6969,28 @@
       </c>
     </row>
     <row r="235">
-      <c r="B235" t="s" s="12">
+      <c r="B235" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C235" t="s" s="12">
+      <c r="C235" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D235" t="s" s="12">
+      <c r="D235" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E235" t="s" s="12">
+      <c r="E235" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F235" t="s" s="12">
+      <c r="F235" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G235" t="s" s="12">
+      <c r="G235" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H235" t="s" s="12">
+      <c r="H235" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I235" t="s" s="12">
+      <c r="I235" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7089,10 +7107,10 @@
       <c r="I239">
         <f>((C239-C238)^2+(D239- D238)^2)^.5</f>
       </c>
-      <c r="J239" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K239" s="12" t="s">
+      <c r="J239" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K239" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L239" t="n">
@@ -7136,28 +7154,28 @@
       </c>
     </row>
     <row r="241">
-      <c r="A241" t="s" s="12">
+      <c r="A241" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B241" t="s" s="12">
+      <c r="B241" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C241" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D241" t="s" s="12">
+      <c r="C241" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D241" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E241" t="s" s="12">
+      <c r="E241" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F241" t="s" s="12">
+      <c r="F241" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G241" t="s" s="12">
+      <c r="G241" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H241" t="s" s="12">
+      <c r="H241" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7182,28 +7200,28 @@
       </c>
     </row>
     <row r="243">
-      <c r="B243" t="s" s="12">
+      <c r="B243" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C243" t="s" s="12">
+      <c r="C243" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D243" t="s" s="12">
+      <c r="D243" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E243" t="s" s="12">
+      <c r="E243" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F243" t="s" s="12">
+      <c r="F243" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G243" t="s" s="12">
+      <c r="G243" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H243" t="s" s="12">
+      <c r="H243" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I243" t="s" s="12">
+      <c r="I243" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7262,10 +7280,10 @@
       <c r="I245">
         <f>((C245-C244)^2+(D245- D244)^2)^.5</f>
       </c>
-      <c r="J245" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K245" s="12" t="s">
+      <c r="J245" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K245" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L245" t="n">
@@ -7309,28 +7327,28 @@
       </c>
     </row>
     <row r="247">
-      <c r="A247" t="s" s="12">
+      <c r="A247" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B247" t="s" s="12">
+      <c r="B247" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C247" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D247" t="s" s="12">
+      <c r="C247" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D247" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E247" t="s" s="12">
+      <c r="E247" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F247" t="s" s="12">
+      <c r="F247" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G247" t="s" s="12">
+      <c r="G247" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H247" t="s" s="12">
+      <c r="H247" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7355,28 +7373,28 @@
       </c>
     </row>
     <row r="249">
-      <c r="B249" t="s" s="12">
+      <c r="B249" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C249" t="s" s="12">
+      <c r="C249" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D249" t="s" s="12">
+      <c r="D249" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E249" t="s" s="12">
+      <c r="E249" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F249" t="s" s="12">
+      <c r="F249" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G249" t="s" s="12">
+      <c r="G249" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H249" t="s" s="12">
+      <c r="H249" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I249" t="s" s="12">
+      <c r="I249" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7493,10 +7511,10 @@
       <c r="I253">
         <f>((C253-C252)^2+(D253- D252)^2)^.5</f>
       </c>
-      <c r="J253" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K253" s="12" t="s">
+      <c r="J253" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K253" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L253" t="n">
@@ -7540,28 +7558,28 @@
       </c>
     </row>
     <row r="255">
-      <c r="A255" t="s" s="12">
+      <c r="A255" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B255" t="s" s="12">
+      <c r="B255" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C255" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D255" t="s" s="12">
+      <c r="C255" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D255" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E255" t="s" s="12">
+      <c r="E255" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F255" t="s" s="12">
+      <c r="F255" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G255" t="s" s="12">
+      <c r="G255" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H255" t="s" s="12">
+      <c r="H255" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7586,28 +7604,28 @@
       </c>
     </row>
     <row r="257">
-      <c r="B257" t="s" s="12">
+      <c r="B257" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C257" t="s" s="12">
+      <c r="C257" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D257" t="s" s="12">
+      <c r="D257" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E257" t="s" s="12">
+      <c r="E257" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F257" t="s" s="12">
+      <c r="F257" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G257" t="s" s="12">
+      <c r="G257" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H257" t="s" s="12">
+      <c r="H257" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I257" t="s" s="12">
+      <c r="I257" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7695,10 +7713,10 @@
       <c r="I260">
         <f>((C260-C259)^2+(D260- D259)^2)^.5</f>
       </c>
-      <c r="J260" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K260" s="12" t="s">
+      <c r="J260" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K260" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L260" t="n">
@@ -7742,28 +7760,28 @@
       </c>
     </row>
     <row r="262">
-      <c r="A262" t="s" s="12">
+      <c r="A262" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B262" t="s" s="12">
+      <c r="B262" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C262" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D262" t="s" s="12">
+      <c r="C262" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D262" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E262" t="s" s="12">
+      <c r="E262" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F262" t="s" s="12">
+      <c r="F262" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G262" t="s" s="12">
+      <c r="G262" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H262" t="s" s="12">
+      <c r="H262" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7788,28 +7806,28 @@
       </c>
     </row>
     <row r="264">
-      <c r="B264" t="s" s="12">
+      <c r="B264" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C264" t="s" s="12">
+      <c r="C264" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D264" t="s" s="12">
+      <c r="D264" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E264" t="s" s="12">
+      <c r="E264" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F264" t="s" s="12">
+      <c r="F264" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G264" t="s" s="12">
+      <c r="G264" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H264" t="s" s="12">
+      <c r="H264" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I264" t="s" s="12">
+      <c r="I264" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7897,10 +7915,10 @@
       <c r="I267">
         <f>((C267-C266)^2+(D267- D266)^2)^.5</f>
       </c>
-      <c r="J267" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K267" s="12" t="s">
+      <c r="J267" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K267" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L267" t="n">
@@ -7944,28 +7962,28 @@
       </c>
     </row>
     <row r="269">
-      <c r="A269" t="s" s="12">
+      <c r="A269" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B269" t="s" s="12">
+      <c r="B269" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C269" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D269" t="s" s="12">
+      <c r="C269" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D269" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E269" t="s" s="12">
+      <c r="E269" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F269" t="s" s="12">
+      <c r="F269" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G269" t="s" s="12">
+      <c r="G269" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H269" t="s" s="12">
+      <c r="H269" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7990,28 +8008,28 @@
       </c>
     </row>
     <row r="271">
-      <c r="B271" t="s" s="12">
+      <c r="B271" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C271" t="s" s="12">
+      <c r="C271" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D271" t="s" s="12">
+      <c r="D271" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E271" t="s" s="12">
+      <c r="E271" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F271" t="s" s="12">
+      <c r="F271" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G271" t="s" s="12">
+      <c r="G271" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H271" t="s" s="12">
+      <c r="H271" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I271" t="s" s="12">
+      <c r="I271" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8099,10 +8117,10 @@
       <c r="I274">
         <f>((C274-C273)^2+(D274- D273)^2)^.5</f>
       </c>
-      <c r="J274" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K274" s="12" t="s">
+      <c r="J274" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K274" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L274" t="n">
@@ -8146,28 +8164,28 @@
       </c>
     </row>
     <row r="276">
-      <c r="A276" t="s" s="12">
+      <c r="A276" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B276" t="s" s="12">
+      <c r="B276" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C276" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D276" t="s" s="12">
+      <c r="C276" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D276" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E276" t="s" s="12">
+      <c r="E276" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F276" t="s" s="12">
+      <c r="F276" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G276" t="s" s="12">
+      <c r="G276" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H276" t="s" s="12">
+      <c r="H276" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8192,28 +8210,28 @@
       </c>
     </row>
     <row r="278">
-      <c r="B278" t="s" s="12">
+      <c r="B278" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C278" t="s" s="12">
+      <c r="C278" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D278" t="s" s="12">
+      <c r="D278" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E278" t="s" s="12">
+      <c r="E278" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F278" t="s" s="12">
+      <c r="F278" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G278" t="s" s="12">
+      <c r="G278" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H278" t="s" s="12">
+      <c r="H278" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I278" t="s" s="12">
+      <c r="I278" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8272,10 +8290,10 @@
       <c r="I280">
         <f>((C280-C279)^2+(D280- D279)^2)^.5</f>
       </c>
-      <c r="J280" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K280" s="12" t="s">
+      <c r="J280" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K280" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L280" t="n">
@@ -8319,28 +8337,28 @@
       </c>
     </row>
     <row r="282">
-      <c r="A282" t="s" s="12">
+      <c r="A282" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B282" t="s" s="12">
+      <c r="B282" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C282" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D282" t="s" s="12">
+      <c r="C282" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D282" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E282" t="s" s="12">
+      <c r="E282" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F282" t="s" s="12">
+      <c r="F282" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G282" t="s" s="12">
+      <c r="G282" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H282" t="s" s="12">
+      <c r="H282" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8365,28 +8383,28 @@
       </c>
     </row>
     <row r="284">
-      <c r="B284" t="s" s="12">
+      <c r="B284" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C284" t="s" s="12">
+      <c r="C284" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D284" t="s" s="12">
+      <c r="D284" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E284" t="s" s="12">
+      <c r="E284" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F284" t="s" s="12">
+      <c r="F284" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G284" t="s" s="12">
+      <c r="G284" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H284" t="s" s="12">
+      <c r="H284" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I284" t="s" s="12">
+      <c r="I284" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8445,10 +8463,10 @@
       <c r="I286">
         <f>((C286-C285)^2+(D286- D285)^2)^.5</f>
       </c>
-      <c r="J286" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K286" s="12" t="s">
+      <c r="J286" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K286" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L286" t="n">
@@ -8492,28 +8510,28 @@
       </c>
     </row>
     <row r="288">
-      <c r="A288" t="s" s="12">
+      <c r="A288" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B288" t="s" s="12">
+      <c r="B288" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C288" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D288" t="s" s="12">
+      <c r="C288" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D288" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E288" t="s" s="12">
+      <c r="E288" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F288" t="s" s="12">
+      <c r="F288" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G288" t="s" s="12">
+      <c r="G288" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H288" t="s" s="12">
+      <c r="H288" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8538,28 +8556,28 @@
       </c>
     </row>
     <row r="290">
-      <c r="B290" t="s" s="12">
+      <c r="B290" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C290" t="s" s="12">
+      <c r="C290" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D290" t="s" s="12">
+      <c r="D290" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E290" t="s" s="12">
+      <c r="E290" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F290" t="s" s="12">
+      <c r="F290" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G290" t="s" s="12">
+      <c r="G290" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H290" t="s" s="12">
+      <c r="H290" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I290" t="s" s="12">
+      <c r="I290" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8618,10 +8636,10 @@
       <c r="I292">
         <f>((C292-C291)^2+(D292- D291)^2)^.5</f>
       </c>
-      <c r="J292" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K292" s="12" t="s">
+      <c r="J292" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K292" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L292" t="n">
@@ -8665,28 +8683,28 @@
       </c>
     </row>
     <row r="294">
-      <c r="A294" t="s" s="12">
+      <c r="A294" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B294" t="s" s="12">
+      <c r="B294" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C294" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D294" t="s" s="12">
+      <c r="C294" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D294" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E294" t="s" s="12">
+      <c r="E294" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F294" t="s" s="12">
+      <c r="F294" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G294" t="s" s="12">
+      <c r="G294" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H294" t="s" s="12">
+      <c r="H294" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8711,28 +8729,28 @@
       </c>
     </row>
     <row r="296">
-      <c r="B296" t="s" s="12">
+      <c r="B296" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C296" t="s" s="12">
+      <c r="C296" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D296" t="s" s="12">
+      <c r="D296" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E296" t="s" s="12">
+      <c r="E296" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F296" t="s" s="12">
+      <c r="F296" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G296" t="s" s="12">
+      <c r="G296" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H296" t="s" s="12">
+      <c r="H296" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I296" t="s" s="12">
+      <c r="I296" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8791,10 +8809,10 @@
       <c r="I298">
         <f>((C298-C297)^2+(D298- D297)^2)^.5</f>
       </c>
-      <c r="J298" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K298" s="12" t="s">
+      <c r="J298" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K298" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L298" t="n">
@@ -8838,28 +8856,28 @@
       </c>
     </row>
     <row r="300">
-      <c r="A300" t="s" s="12">
+      <c r="A300" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B300" t="s" s="12">
+      <c r="B300" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C300" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D300" t="s" s="12">
+      <c r="C300" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D300" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E300" t="s" s="12">
+      <c r="E300" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F300" t="s" s="12">
+      <c r="F300" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G300" t="s" s="12">
+      <c r="G300" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H300" t="s" s="12">
+      <c r="H300" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8884,28 +8902,28 @@
       </c>
     </row>
     <row r="302">
-      <c r="B302" t="s" s="12">
+      <c r="B302" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C302" t="s" s="12">
+      <c r="C302" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D302" t="s" s="12">
+      <c r="D302" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E302" t="s" s="12">
+      <c r="E302" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F302" t="s" s="12">
+      <c r="F302" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G302" t="s" s="12">
+      <c r="G302" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H302" t="s" s="12">
+      <c r="H302" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I302" t="s" s="12">
+      <c r="I302" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8964,10 +8982,10 @@
       <c r="I304">
         <f>((C304-C303)^2+(D304- D303)^2)^.5</f>
       </c>
-      <c r="J304" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K304" s="12" t="s">
+      <c r="J304" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K304" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L304" t="n">
@@ -9011,28 +9029,28 @@
       </c>
     </row>
     <row r="306">
-      <c r="A306" t="s" s="12">
+      <c r="A306" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B306" t="s" s="12">
+      <c r="B306" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C306" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D306" t="s" s="12">
+      <c r="C306" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D306" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E306" t="s" s="12">
+      <c r="E306" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F306" t="s" s="12">
+      <c r="F306" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G306" t="s" s="12">
+      <c r="G306" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H306" t="s" s="12">
+      <c r="H306" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9057,28 +9075,28 @@
       </c>
     </row>
     <row r="308">
-      <c r="B308" t="s" s="12">
+      <c r="B308" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C308" t="s" s="12">
+      <c r="C308" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D308" t="s" s="12">
+      <c r="D308" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E308" t="s" s="12">
+      <c r="E308" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F308" t="s" s="12">
+      <c r="F308" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G308" t="s" s="12">
+      <c r="G308" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H308" t="s" s="12">
+      <c r="H308" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I308" t="s" s="12">
+      <c r="I308" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9137,10 +9155,10 @@
       <c r="I310">
         <f>((C310-C309)^2+(D310- D309)^2)^.5</f>
       </c>
-      <c r="J310" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K310" s="12" t="s">
+      <c r="J310" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K310" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L310" t="n">
@@ -9184,28 +9202,28 @@
       </c>
     </row>
     <row r="312">
-      <c r="A312" t="s" s="12">
+      <c r="A312" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B312" t="s" s="12">
+      <c r="B312" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C312" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D312" t="s" s="12">
+      <c r="C312" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D312" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E312" t="s" s="12">
+      <c r="E312" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F312" t="s" s="12">
+      <c r="F312" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G312" t="s" s="12">
+      <c r="G312" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H312" t="s" s="12">
+      <c r="H312" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9230,28 +9248,28 @@
       </c>
     </row>
     <row r="314">
-      <c r="B314" t="s" s="12">
+      <c r="B314" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C314" t="s" s="12">
+      <c r="C314" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D314" t="s" s="12">
+      <c r="D314" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E314" t="s" s="12">
+      <c r="E314" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F314" t="s" s="12">
+      <c r="F314" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G314" t="s" s="12">
+      <c r="G314" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H314" t="s" s="12">
+      <c r="H314" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I314" t="s" s="12">
+      <c r="I314" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9339,10 +9357,10 @@
       <c r="I317">
         <f>((C317-C316)^2+(D317- D316)^2)^.5</f>
       </c>
-      <c r="J317" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K317" s="12" t="s">
+      <c r="J317" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K317" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L317" t="n">
@@ -9386,28 +9404,28 @@
       </c>
     </row>
     <row r="319">
-      <c r="A319" t="s" s="12">
+      <c r="A319" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B319" t="s" s="12">
+      <c r="B319" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C319" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D319" t="s" s="12">
+      <c r="C319" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D319" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E319" t="s" s="12">
+      <c r="E319" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F319" t="s" s="12">
+      <c r="F319" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G319" t="s" s="12">
+      <c r="G319" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H319" t="s" s="12">
+      <c r="H319" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9432,28 +9450,28 @@
       </c>
     </row>
     <row r="321">
-      <c r="B321" t="s" s="12">
+      <c r="B321" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C321" t="s" s="12">
+      <c r="C321" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D321" t="s" s="12">
+      <c r="D321" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E321" t="s" s="12">
+      <c r="E321" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F321" t="s" s="12">
+      <c r="F321" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G321" t="s" s="12">
+      <c r="G321" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H321" t="s" s="12">
+      <c r="H321" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I321" t="s" s="12">
+      <c r="I321" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9541,10 +9559,10 @@
       <c r="I324">
         <f>((C324-C323)^2+(D324- D323)^2)^.5</f>
       </c>
-      <c r="J324" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K324" s="12" t="s">
+      <c r="J324" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K324" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L324" t="n">
@@ -9588,28 +9606,28 @@
       </c>
     </row>
     <row r="326">
-      <c r="A326" t="s" s="12">
+      <c r="A326" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B326" t="s" s="12">
+      <c r="B326" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C326" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D326" t="s" s="12">
+      <c r="C326" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D326" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E326" t="s" s="12">
+      <c r="E326" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F326" t="s" s="12">
+      <c r="F326" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G326" t="s" s="12">
+      <c r="G326" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H326" t="s" s="12">
+      <c r="H326" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9634,28 +9652,28 @@
       </c>
     </row>
     <row r="328">
-      <c r="B328" t="s" s="12">
+      <c r="B328" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C328" t="s" s="12">
+      <c r="C328" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D328" t="s" s="12">
+      <c r="D328" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E328" t="s" s="12">
+      <c r="E328" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F328" t="s" s="12">
+      <c r="F328" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G328" t="s" s="12">
+      <c r="G328" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H328" t="s" s="12">
+      <c r="H328" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I328" t="s" s="12">
+      <c r="I328" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9714,10 +9732,10 @@
       <c r="I330">
         <f>((C330-C329)^2+(D330- D329)^2)^.5</f>
       </c>
-      <c r="J330" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K330" s="12" t="s">
+      <c r="J330" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K330" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L330" t="n">
@@ -9761,28 +9779,28 @@
       </c>
     </row>
     <row r="332">
-      <c r="A332" t="s" s="12">
+      <c r="A332" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B332" t="s" s="12">
+      <c r="B332" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C332" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D332" t="s" s="12">
+      <c r="C332" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D332" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E332" t="s" s="12">
+      <c r="E332" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F332" t="s" s="12">
+      <c r="F332" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G332" t="s" s="12">
+      <c r="G332" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H332" t="s" s="12">
+      <c r="H332" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9807,28 +9825,28 @@
       </c>
     </row>
     <row r="334">
-      <c r="B334" t="s" s="12">
+      <c r="B334" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C334" t="s" s="12">
+      <c r="C334" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D334" t="s" s="12">
+      <c r="D334" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E334" t="s" s="12">
+      <c r="E334" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F334" t="s" s="12">
+      <c r="F334" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G334" t="s" s="12">
+      <c r="G334" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H334" t="s" s="12">
+      <c r="H334" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I334" t="s" s="12">
+      <c r="I334" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9887,10 +9905,10 @@
       <c r="I336">
         <f>((C336-C335)^2+(D336- D335)^2)^.5</f>
       </c>
-      <c r="J336" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K336" s="12" t="s">
+      <c r="J336" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K336" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L336" t="n">
